--- a/output/Piau-Tsu-Im.xlsx
+++ b/output/Piau-Tsu-Im.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD68A26F-6501-4EA0-8285-A0CD4895EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3B079-0D42-4DCB-B89D-B6E8F2B20D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27765" yWindow="2280" windowWidth="26880" windowHeight="12300" activeTab="1" xr2:uid="{9A39255A-F303-4D1B-B4CF-B0058B934929}"/>
+    <workbookView xWindow="7695" yWindow="900" windowWidth="22200" windowHeight="12975" xr2:uid="{BF481C1B-D385-46B9-9CCA-9BADEBE96FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -56,7 +56,7 @@
     <t>INPUT_FILE_PATH</t>
   </si>
   <si>
-    <t>d:\work\Piau-Im\docs</t>
+    <t>d:\work\Piau-Im\output</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -69,21 +69,28 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>文章標題</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>IMAGE_URL</t>
   </si>
   <si>
-    <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
+    <t>楚天千里清秋，水隨天去秋無際。遙岑遠目，獻愁供恨，玉簪螺髻。落日樓頭，斷鴻聲裏，江南遊子。把吳鉤看了，欄杆拍遍，無人會，登臨意。</t>
+  </si>
+  <si>
+    <t>休說鱸魚堪膾，盡西風，季鷹歸未？求田問舍，怕應羞見，劉郎才氣。可惜流年，憂愁風雨，樹猶如此！倩何人喚取，紅巾翠袖，搵英雄淚！</t>
+  </si>
+  <si>
+    <t>《水龍吟·登建康賞心亭》</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-bCiLH3L8YEw/WY8XozAurDI/AAAAAAAACOM/xjW_YocrTRIUZIrOesgP_gRPCuwEUbVBQCK4BGAYYCw/s1600/32fa828ba61ea8d341c4ac9f9e0a304e241f5843.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -116,6 +123,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -140,15 +155,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,10 +179,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{B21ED041-7195-4B24-8FBF-9A393B5E0156}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{8141268F-4972-4C0C-8C13-30E386FB97D8}"/>
+    <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,27 +520,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE245420-B0EE-4BCA-A7D2-7448613B68EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A0B72-9E20-4026-BA4E-9339D2E3913E}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D511623B-908E-40D0-A6BC-BDB18B608669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0AB5B9-BC0F-40E3-97CA-10EBB15DCB68}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -554,20 +597,23 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{B7F2CF8D-1BE0-4DC0-A552-C43CDCF0CFB0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/Piau-Tsu-Im.xlsx
+++ b/output/Piau-Tsu-Im.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3B079-0D42-4DCB-B89D-B6E8F2B20D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B04230D-B02D-4F1A-B21C-ECB96EB8BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="900" windowWidth="22200" windowHeight="12975" xr2:uid="{BF481C1B-D385-46B9-9CCA-9BADEBE96FDC}"/>
+    <workbookView xWindow="-20895" yWindow="2145" windowWidth="18165" windowHeight="12000" firstSheet="1" activeTab="2" xr2:uid="{BF481C1B-D385-46B9-9CCA-9BADEBE96FDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="env" sheetId="2" r:id="rId2"/>
+    <sheet name="漢字注音表" sheetId="5" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
+    <sheet name="env" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="258">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -78,11 +79,750 @@
     <t>休說鱸魚堪膾，盡西風，季鷹歸未？求田問舍，怕應羞見，劉郎才氣。可惜流年，憂愁風雨，樹猶如此！倩何人喚取，紅巾翠袖，搵英雄淚！</t>
   </si>
   <si>
-    <t>《水龍吟·登建康賞心亭》</t>
+    <t>https://3.bp.blogspot.com/-bCiLH3L8YEw/WY8XozAurDI/AAAAAAAACOM/xjW_YocrTRIUZIrOesgP_gRPCuwEUbVBQCK4BGAYYCw/s1600/32fa828ba61ea8d341c4ac9f9e0a304e241f5843.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://3.bp.blogspot.com/-bCiLH3L8YEw/WY8XozAurDI/AAAAAAAACOM/xjW_YocrTRIUZIrOesgP_gRPCuwEUbVBQCK4BGAYYCw/s1600/32fa828ba61ea8d341c4ac9f9e0a304e241f5843.jpg</t>
+    <t>水</t>
+  </si>
+  <si>
+    <t>龍</t>
+  </si>
+  <si>
+    <t>吟</t>
+  </si>
+  <si>
+    <t>·</t>
+  </si>
+  <si>
+    <t>登</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>康</t>
+  </si>
+  <si>
+    <t>賞</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>亭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>楚</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>隨</t>
+  </si>
+  <si>
+    <t>去</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>際</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>遙</t>
+  </si>
+  <si>
+    <t>岑</t>
+  </si>
+  <si>
+    <t>遠</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>獻</t>
+  </si>
+  <si>
+    <t>愁</t>
+  </si>
+  <si>
+    <t>供</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>玉</t>
+  </si>
+  <si>
+    <t>簪</t>
+  </si>
+  <si>
+    <t>螺</t>
+  </si>
+  <si>
+    <t>髻</t>
+  </si>
+  <si>
+    <t>落</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>樓</t>
+  </si>
+  <si>
+    <t>頭</t>
+  </si>
+  <si>
+    <t>斷</t>
+  </si>
+  <si>
+    <t>鴻</t>
+  </si>
+  <si>
+    <t>聲</t>
+  </si>
+  <si>
+    <t>裏</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>把</t>
+  </si>
+  <si>
+    <t>吳</t>
+  </si>
+  <si>
+    <t>鉤</t>
+  </si>
+  <si>
+    <t>看</t>
+  </si>
+  <si>
+    <t>了</t>
+  </si>
+  <si>
+    <t>欄</t>
+  </si>
+  <si>
+    <t>杆</t>
+  </si>
+  <si>
+    <t>拍</t>
+  </si>
+  <si>
+    <t>遍</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>會</t>
+  </si>
+  <si>
+    <t>臨</t>
+  </si>
+  <si>
+    <t>意</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>說</t>
+  </si>
+  <si>
+    <t>鱸</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>堪</t>
+  </si>
+  <si>
+    <t>膾</t>
+  </si>
+  <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>季</t>
+  </si>
+  <si>
+    <t>鷹</t>
+  </si>
+  <si>
+    <t>歸</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>求</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>舍</t>
+  </si>
+  <si>
+    <t>怕</t>
+  </si>
+  <si>
+    <t>應</t>
+  </si>
+  <si>
+    <t>羞</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>劉</t>
+  </si>
+  <si>
+    <t>郎</t>
+  </si>
+  <si>
+    <t>才</t>
+  </si>
+  <si>
+    <t>氣</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>惜</t>
+  </si>
+  <si>
+    <t>流</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>憂</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>樹</t>
+  </si>
+  <si>
+    <t>猶</t>
+  </si>
+  <si>
+    <t>如</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>倩</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>喚</t>
+  </si>
+  <si>
+    <t>取</t>
+  </si>
+  <si>
+    <t>紅</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>翠</t>
+  </si>
+  <si>
+    <t>袖</t>
+  </si>
+  <si>
+    <t>搵</t>
+  </si>
+  <si>
+    <t>英</t>
+  </si>
+  <si>
+    <t>雄</t>
+  </si>
+  <si>
+    <t>淚</t>
+  </si>
+  <si>
+    <t>sui2</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>liong5</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>iong</t>
+  </si>
+  <si>
+    <t>gim5</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>ting1</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>kian3</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>khong1</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>siang2</t>
+  </si>
+  <si>
+    <t>iang</t>
+  </si>
+  <si>
+    <t>sim1</t>
+  </si>
+  <si>
+    <t>ting5</t>
+  </si>
+  <si>
+    <t>tshoo2</t>
+  </si>
+  <si>
+    <t>tsh</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>thian1</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>tshian1</t>
+  </si>
+  <si>
+    <t>li2</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>tshing1</t>
+  </si>
+  <si>
+    <t>tshiu1</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>sui5</t>
+  </si>
+  <si>
+    <t>khi3</t>
+  </si>
+  <si>
+    <t>bu5</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>tsei3</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>qiau5</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>iau</t>
+  </si>
+  <si>
+    <t>quan2</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>bok8</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>hian3</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>tshiu5</t>
+  </si>
+  <si>
+    <t>kiong1</t>
+  </si>
+  <si>
+    <t>hin7</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>giok8</t>
+  </si>
+  <si>
+    <t>iok</t>
+  </si>
+  <si>
+    <t>tsam1</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>lo5</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>kei3</t>
+  </si>
+  <si>
+    <t>lok8</t>
+  </si>
+  <si>
+    <t>jit8</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>loo5</t>
+  </si>
+  <si>
+    <t>thoo5</t>
+  </si>
+  <si>
+    <t>tuan3</t>
+  </si>
+  <si>
+    <t>hong5</t>
+  </si>
+  <si>
+    <t>sing1</t>
+  </si>
+  <si>
+    <t>kang1</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>lam5</t>
+  </si>
+  <si>
+    <t>qiu5</t>
+  </si>
+  <si>
+    <t>tsu2</t>
+  </si>
+  <si>
+    <t>pa3</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>goo5</t>
+  </si>
+  <si>
+    <t>koo1</t>
+  </si>
+  <si>
+    <t>khan1</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>liau2</t>
+  </si>
+  <si>
+    <t>lan5</t>
+  </si>
+  <si>
+    <t>kan1</t>
+  </si>
+  <si>
+    <t>phik4</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>pian3</t>
+  </si>
+  <si>
+    <t>jin5</t>
+  </si>
+  <si>
+    <t>kue3</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>lim5</t>
+  </si>
+  <si>
+    <t>qi3</t>
+  </si>
+  <si>
+    <t>hiu1</t>
+  </si>
+  <si>
+    <t>suat4</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>gi5</t>
+  </si>
+  <si>
+    <t>kham1</t>
+  </si>
+  <si>
+    <t>tsin7</t>
+  </si>
+  <si>
+    <t>sei1</t>
+  </si>
+  <si>
+    <t>hong2</t>
+  </si>
+  <si>
+    <t>kui3</t>
+  </si>
+  <si>
+    <t>qing1</t>
+  </si>
+  <si>
+    <t>kui1</t>
+  </si>
+  <si>
+    <t>bi7</t>
+  </si>
+  <si>
+    <t>kiu5</t>
+  </si>
+  <si>
+    <t>tian5</t>
+  </si>
+  <si>
+    <t>bun7</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>sia2</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>pha3</t>
+  </si>
+  <si>
+    <t>qing3</t>
+  </si>
+  <si>
+    <t>siu1</t>
+  </si>
+  <si>
+    <t>liu5</t>
+  </si>
+  <si>
+    <t>long5</t>
+  </si>
+  <si>
+    <t>tshai5</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>kho2</t>
+  </si>
+  <si>
+    <t>sik4</t>
+  </si>
+  <si>
+    <t>lian5</t>
+  </si>
+  <si>
+    <t>qiu1</t>
+  </si>
+  <si>
+    <t>qu2</t>
+  </si>
+  <si>
+    <t>si7</t>
+  </si>
+  <si>
+    <t>ji5</t>
+  </si>
+  <si>
+    <t>tshu2</t>
+  </si>
+  <si>
+    <t>tshian3</t>
+  </si>
+  <si>
+    <t>ho7</t>
+  </si>
+  <si>
+    <t>huan3</t>
+  </si>
+  <si>
+    <t>tshi3</t>
+  </si>
+  <si>
+    <t>kin1</t>
+  </si>
+  <si>
+    <t>tshui3</t>
+  </si>
+  <si>
+    <t>siu7</t>
+  </si>
+  <si>
+    <t>qun3</t>
+  </si>
+  <si>
+    <t>hiong5</t>
+  </si>
+  <si>
+    <t>lui7</t>
+  </si>
+  <si>
+    <t>水龍吟·登建康賞心亭</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,9 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -520,11 +1257,2426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA1E516-8C26-42F8-804B-7EC9939E931F}">
+  <dimension ref="A1:G140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="51">
+      <c r="A77" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" t="s">
+        <v>160</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" t="s">
+        <v>197</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" t="s">
+        <v>152</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D105" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" t="s">
+        <v>242</v>
+      </c>
+      <c r="C114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" t="s">
+        <v>152</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" t="s">
+        <v>152</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>103</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119">
+        <v>7</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" t="s">
+        <v>183</v>
+      </c>
+      <c r="D121" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125">
+        <v>7</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" t="s">
+        <v>209</v>
+      </c>
+      <c r="C126" t="s">
+        <v>183</v>
+      </c>
+      <c r="D126" t="s">
+        <v>173</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" t="s">
+        <v>249</v>
+      </c>
+      <c r="C127" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" t="s">
+        <v>137</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" t="s">
+        <v>251</v>
+      </c>
+      <c r="C131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" t="s">
+        <v>173</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" t="s">
+        <v>252</v>
+      </c>
+      <c r="C132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" t="s">
+        <v>253</v>
+      </c>
+      <c r="C133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" t="s">
+        <v>152</v>
+      </c>
+      <c r="E133">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" t="s">
+        <v>131</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" t="s">
+        <v>169</v>
+      </c>
+      <c r="D137" t="s">
+        <v>125</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138">
+        <v>7</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="51">
+      <c r="A140" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A0B72-9E20-4026-BA4E-9339D2E3913E}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -533,17 +3685,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
+      <c r="A1" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -553,12 +3705,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0AB5B9-BC0F-40E3-97CA-10EBB15DCB68}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -597,16 +3749,16 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
+      <c r="C4" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/output/Piau-Tsu-Im.xlsx
+++ b/output/Piau-Tsu-Im.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89811BE4-3803-43EB-A3C5-AF94E2ED5E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50181394-26AD-4791-A2D8-3C4FF8912807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24960" yWindow="2895" windowWidth="18420" windowHeight="11385" xr2:uid="{52854E28-BB08-442A-8B76-3A0F56AE34F8}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{20CC3E00-5686-47BC-A35E-3A5BB34E83E5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -77,33 +77,13 @@
   </si>
   <si>
     <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
-  </si>
-  <si>
-    <t>《最有力量的每日祈禱文》</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阮謙卑地敬仰、讚美、感謝、服從和愛
-全能的上帝，至高無上的上帝，最偉大的上帝，
-賜予純素世界、世界和平和阮靈魂的解脫。</t>
-  </si>
-  <si>
-    <t>阮遵循所有聖人和聖哲的教誨，
-阮感謝、愛與讚美他們，
-他們是上帝的代表，賜予阮靈性的提昇。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阮感謝、愛與讚美
-上帝唯一的囝兒，伊是終極明師，
-賜予阮救贖。 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -133,14 +113,6 @@
     <font>
       <sz val="9"/>
       <name val="黒体-繁"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Noto Sans TC"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -176,7 +148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,13 +161,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{64B27AD1-6767-460A-925A-5D0F4A842A78}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{65409A97-3CCD-483C-91A2-B6E42AD8B224}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,49 +495,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D01A17A-935C-48E4-BDFF-96B7E4130530}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7C7A49-0732-4258-BED1-E3FA25BE7533}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="76.5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="76.5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="76.5">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC239B5-7C41-4147-96DB-F41762266230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE2D115-D122-4B7D-B487-72E3BDEB9014}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/output/Piau-Tsu-Im.xlsx
+++ b/output/Piau-Tsu-Im.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50181394-26AD-4791-A2D8-3C4FF8912807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE390A-24A4-4936-A25E-587AEF4F215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{20CC3E00-5686-47BC-A35E-3A5BB34E83E5}"/>
+    <workbookView xWindow="-26790" yWindow="810" windowWidth="23970" windowHeight="13680" firstSheet="1" activeTab="1" xr2:uid="{376869EE-C11B-4B72-B8C1-658E9A86F99B}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="env" sheetId="2" r:id="rId2"/>
+    <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
+    <sheet name="env" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -77,6 +78,187 @@
   </si>
   <si>
     <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
+  </si>
+  <si>
+    <t>年少從我追遊，晚涼幽徑，繞張園森木。共倒金荷，家萬里，難得尊前相屬。 老子平生，江南江北，最愛臨風笛。孫郎微笑，坐來聲噴霜竹。</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='zhu_yin'&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt; &lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《文章標題》【雙排注音】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='文章標題' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;少&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siau2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;從&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄫㆧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ngonn2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;追&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tui1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆪˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;inn2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;buan2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;涼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liang5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;徑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄥ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;king3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;繞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jiau2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;張&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiang1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;園&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;森&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆱ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;som1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;木&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;共&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kiong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;to2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;金&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆬ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kim1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;荷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄝ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kee1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ban7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;難&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zun1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zian5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;相&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;屬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lo2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;子&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;生&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;最&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zue3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ai3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;臨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆬˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lim5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sun1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;郎&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;long5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;微&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bi5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siau3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;坐&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄜ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zo7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄞˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lai5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;聲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;噴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;phun1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;song1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;竹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiok4&lt;/rt&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -164,7 +346,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{65409A97-3CCD-483C-91A2-B6E42AD8B224}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{22BFC472-E203-49F0-88B4-506EEB200C6E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,8 +677,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7C7A49-0732-4258-BED1-E3FA25BE7533}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D719D58-F5D8-4EFA-B2FD-E3AB9F7E30DF}">
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,17 +686,375 @@
   <cols>
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="204">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE2D115-D122-4B7D-B487-72E3BDEB9014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D353EBD-5826-4AE7-9C40-83B86D292FAF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1507200D-E627-4795-B078-7FAE9F60E1BF}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/output/Piau-Tsu-Im.xlsx
+++ b/output/Piau-Tsu-Im.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE390A-24A4-4936-A25E-587AEF4F215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA531A0-7CA3-414E-B9A9-00D6D013A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26790" yWindow="810" windowWidth="23970" windowHeight="13680" firstSheet="1" activeTab="1" xr2:uid="{376869EE-C11B-4B72-B8C1-658E9A86F99B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{376869EE-C11B-4B72-B8C1-658E9A86F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
-    <sheet name="env" sheetId="2" r:id="rId3"/>
+    <sheet name="十五音切語" sheetId="16" r:id="rId2"/>
+    <sheet name="字庫表" sheetId="14" r:id="rId3"/>
+    <sheet name="缺字表" sheetId="13" r:id="rId4"/>
+    <sheet name="漢字注音表" sheetId="15" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId6"/>
+    <sheet name="env" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="215">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -70,17 +74,7 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>文章標題</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>IMAGE_URL</t>
-  </si>
-  <si>
-    <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
-  </si>
-  <si>
-    <t>年少從我追遊，晚涼幽徑，繞張園森木。共倒金荷，家萬里，難得尊前相屬。 老子平生，江南江北，最愛臨風笛。孫郎微笑，坐來聲噴霜竹。</t>
   </si>
   <si>
     <t>，</t>
@@ -260,12 +254,481 @@
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;竹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiok4&lt;/rt&gt;&lt;/ruby&gt;</t>
   </si>
+  <si>
+    <t>八月十七日，同諸生步自永安城樓，過張寬夫園待月。偶有名酒，因以金荷酌眾客。客有孫彥立，善吹笛。援筆作樂府長短句，文不加點。</t>
+  </si>
+  <si>
+    <t>《念奴嬌·斷虹霽雨》</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋代黃庭堅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>念奴嬌·斷虹霽雨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://5b0988e595225.cdn.sohucs.com/images/20181227/3ea08fadf38e4e068afe1da68b0fc9a6.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>嬌</t>
+  </si>
+  <si>
+    <t>·</t>
+  </si>
+  <si>
+    <t>斷</t>
+  </si>
+  <si>
+    <t>虹</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>》</t>
+  </si>
+  <si>
+    <t>諸</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>過</t>
+  </si>
+  <si>
+    <t>張</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>偶</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>荷</t>
+  </si>
+  <si>
+    <t>眾</t>
+  </si>
+  <si>
+    <t>吹</t>
+  </si>
+  <si>
+    <t>援</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>樂</t>
+  </si>
+  <si>
+    <t>長</t>
+  </si>
+  <si>
+    <t>句</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>染</t>
+  </si>
+  <si>
+    <t>扶</t>
+  </si>
+  <si>
+    <t>疏</t>
+  </si>
+  <si>
+    <t>便</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>裡</t>
+  </si>
+  <si>
+    <t>姮</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>零</t>
+  </si>
+  <si>
+    <t>偏</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>涼</t>
+  </si>
+  <si>
+    <t>繞</t>
+  </si>
+  <si>
+    <t>共</t>
+  </si>
+  <si>
+    <t>倒</t>
+  </si>
+  <si>
+    <t>難</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>屬</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>臨</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
+    <t>噴</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>iam</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>kiau1</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>iau</t>
+  </si>
+  <si>
+    <t>tuan2</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>hong5</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>qu2</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>ci1</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>sing1</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>ko1</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>tiong1</t>
+  </si>
+  <si>
+    <t>iong</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>hu5</t>
+  </si>
+  <si>
+    <t>quan5</t>
+  </si>
+  <si>
+    <t>gio2</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>ho5</t>
+  </si>
+  <si>
+    <t>ciok4</t>
+  </si>
+  <si>
+    <t>iok</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>chui1</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>coo3</t>
+  </si>
+  <si>
+    <t>gau7</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>tiong5</t>
+  </si>
+  <si>
+    <t>ku5</t>
+  </si>
+  <si>
+    <t>hiu1</t>
+  </si>
+  <si>
+    <t>khong1</t>
+  </si>
+  <si>
+    <t>jiam2</t>
+  </si>
+  <si>
+    <t>hian5</t>
+  </si>
+  <si>
+    <t>to2</t>
+  </si>
+  <si>
+    <t>cu3</t>
+  </si>
+  <si>
+    <t>chi2</t>
+  </si>
+  <si>
+    <t>kong1</t>
+  </si>
+  <si>
+    <t>lian5</t>
+  </si>
+  <si>
+    <t>hian1</t>
+  </si>
+  <si>
+    <t>siau2</t>
+  </si>
+  <si>
+    <t>ciong5</t>
+  </si>
+  <si>
+    <t>liong5</t>
+  </si>
+  <si>
+    <t>jiau2</t>
+  </si>
+  <si>
+    <t>kiong1</t>
+  </si>
+  <si>
+    <t>lan5</t>
+  </si>
+  <si>
+    <t>siong1</t>
+  </si>
+  <si>
+    <t>lim5</t>
+  </si>
+  <si>
+    <t>hiong1</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>phun1</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《念奴嬌·斷虹霽雨》【十五音切語】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='念奴嬌·斷虹霽雨' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='http://5b0988e595225.cdn.sohucs.com/images/20181227/3ea08fadf38e4e068afe1da68b0fc9a6.jpeg' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;div class='fifteen_yin'&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;念&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;兼七柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;沽五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嬌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;嬌一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀二地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;伽三出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;皆七地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;八&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;干四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;月&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀八語&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;金八時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>斷虹霽雨，淨秋空，山染修眉新綠。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂影扶疏，誰便道，今夕清輝不足？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬里青天，姮娥何處，駕此一輪玉。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年少從我追遊，晚涼幽徑，繞張園森木。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒光零亂，爲誰偏照醽醁？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共倒金荷，家萬里，難得尊前相屬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老子平生，江南江北，最愛臨風笛。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫郎微笑，坐來聲噴霜竹。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -298,6 +761,21 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -322,15 +800,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,10 +824,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{22BFC472-E203-49F0-88B4-506EEB200C6E}"/>
+    <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,337 +1177,337 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1517,2936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC16D6B-3EB0-4E26-A3B5-088D4DBE576E}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="204">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED034448-E6EC-4ECE-AFEE-95EDE8A6CFB6}">
+  <dimension ref="A1:G114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>5806</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5951</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>12647</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>11930</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>11992</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>17682</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>14571</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>14717</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10758</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>15732</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>2167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>6724</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>7679</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>19086</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>6546</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>18576</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>7090</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>18857</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>2489</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>2567</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>13979</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>19592</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>6524</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>12960</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>884</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>14852</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>4289</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>18016</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>15920</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>18555</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>23023</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>18417</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>20717</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>22977</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>7082</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>13350</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>18877</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>73</v>
+      </c>
+      <c r="B39">
+        <v>2324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <v>8962</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>15666</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <v>19549</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>8638</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <v>13833</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>21332</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>76</v>
+      </c>
+      <c r="B46">
+        <v>25349</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>82</v>
+      </c>
+      <c r="B47">
+        <v>11930</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>82</v>
+      </c>
+      <c r="B48">
+        <v>11992</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <v>17682</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>261</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>83</v>
+      </c>
+      <c r="B51">
+        <v>14571</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>83</v>
+      </c>
+      <c r="B52">
+        <v>14717</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>85</v>
+      </c>
+      <c r="B53">
+        <v>10758</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>85</v>
+      </c>
+      <c r="B54">
+        <v>15732</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>89</v>
+      </c>
+      <c r="B55">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>89</v>
+      </c>
+      <c r="B56">
+        <v>14596</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>92</v>
+      </c>
+      <c r="B57">
+        <v>14392</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>92</v>
+      </c>
+      <c r="B58">
+        <v>19766</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>102</v>
+      </c>
+      <c r="B59">
+        <v>2480</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>102</v>
+      </c>
+      <c r="B60">
+        <v>2570</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" t="s">
+        <v>135</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>106</v>
+      </c>
+      <c r="B61">
+        <v>5377</v>
+      </c>
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>106</v>
+      </c>
+      <c r="B62">
+        <v>18151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>113</v>
+      </c>
+      <c r="B63">
+        <v>8638</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>113</v>
+      </c>
+      <c r="B64">
+        <v>13833</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" t="s">
+        <v>155</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>113</v>
+      </c>
+      <c r="B65">
+        <v>21332</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>113</v>
+      </c>
+      <c r="B66">
+        <v>25349</v>
+      </c>
+      <c r="C66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>114</v>
+      </c>
+      <c r="B67">
+        <v>15726</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>114</v>
+      </c>
+      <c r="B68">
+        <v>20665</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>125</v>
+      </c>
+      <c r="B69">
+        <v>6522</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>125</v>
+      </c>
+      <c r="B70">
+        <v>12961</v>
+      </c>
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
+        <v>148</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>126</v>
+      </c>
+      <c r="B71">
+        <v>10647</v>
+      </c>
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>126</v>
+      </c>
+      <c r="B72">
+        <v>15614</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>137</v>
+      </c>
+      <c r="B73">
+        <v>7419</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>137</v>
+      </c>
+      <c r="B74">
+        <v>19020</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>138</v>
+      </c>
+      <c r="B75">
+        <v>5126</v>
+      </c>
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>138</v>
+      </c>
+      <c r="B76">
+        <v>8113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>138</v>
+      </c>
+      <c r="B77">
+        <v>19196</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>143</v>
+      </c>
+      <c r="B78">
+        <v>5371</v>
+      </c>
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>143</v>
+      </c>
+      <c r="B79">
+        <v>18135</v>
+      </c>
+      <c r="C79" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" t="s">
+        <v>130</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>151</v>
+      </c>
+      <c r="B80">
+        <v>12596</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>151</v>
+      </c>
+      <c r="B81">
+        <v>18320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
+        <v>125</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>152</v>
+      </c>
+      <c r="B82">
+        <v>555</v>
+      </c>
+      <c r="C82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" t="s">
+        <v>150</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>152</v>
+      </c>
+      <c r="B83">
+        <v>645</v>
+      </c>
+      <c r="C83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" t="s">
+        <v>132</v>
+      </c>
+      <c r="F83" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>152</v>
+      </c>
+      <c r="B84">
+        <v>14714</v>
+      </c>
+      <c r="C84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" t="s">
+        <v>150</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>158</v>
+      </c>
+      <c r="B85">
+        <v>6997</v>
+      </c>
+      <c r="C85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>158</v>
+      </c>
+      <c r="B86">
+        <v>18837</v>
+      </c>
+      <c r="C86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>162</v>
+      </c>
+      <c r="B87">
+        <v>12601</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" t="s">
+        <v>125</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>162</v>
+      </c>
+      <c r="B88">
+        <v>18327</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>181</v>
+      </c>
+      <c r="E88" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>163</v>
+      </c>
+      <c r="B89">
+        <v>7090</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" t="s">
+        <v>150</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>163</v>
+      </c>
+      <c r="B90">
+        <v>18857</v>
+      </c>
+      <c r="C90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>170</v>
+      </c>
+      <c r="B91">
+        <v>632</v>
+      </c>
+      <c r="C91" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" t="s">
+        <v>150</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>170</v>
+      </c>
+      <c r="B92">
+        <v>14684</v>
+      </c>
+      <c r="C92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>171</v>
+      </c>
+      <c r="B93">
+        <v>12823</v>
+      </c>
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" t="s">
+        <v>172</v>
+      </c>
+      <c r="E93" t="s">
+        <v>127</v>
+      </c>
+      <c r="F93" t="s">
+        <v>148</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>171</v>
+      </c>
+      <c r="B94">
+        <v>18443</v>
+      </c>
+      <c r="C94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" t="s">
+        <v>127</v>
+      </c>
+      <c r="F94" t="s">
+        <v>148</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>173</v>
+      </c>
+      <c r="B95">
+        <v>6524</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" t="s">
+        <v>148</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>173</v>
+      </c>
+      <c r="B96">
+        <v>12960</v>
+      </c>
+      <c r="C96" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" t="s">
+        <v>148</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>179</v>
+      </c>
+      <c r="B97">
+        <v>4624</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" t="s">
+        <v>145</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>179</v>
+      </c>
+      <c r="B98">
+        <v>17585</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" t="s">
+        <v>145</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>183</v>
+      </c>
+      <c r="B99">
+        <v>7127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>183</v>
+      </c>
+      <c r="B100">
+        <v>18942</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" t="s">
+        <v>150</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>184</v>
+      </c>
+      <c r="B101">
+        <v>20558</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" t="s">
+        <v>159</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>184</v>
+      </c>
+      <c r="B102">
+        <v>20604</v>
+      </c>
+      <c r="C102" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" t="s">
+        <v>159</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>190</v>
+      </c>
+      <c r="B103">
+        <v>5380</v>
+      </c>
+      <c r="C103" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" t="s">
+        <v>171</v>
+      </c>
+      <c r="E103" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" t="s">
+        <v>138</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>190</v>
+      </c>
+      <c r="B104">
+        <v>7641</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>191</v>
+      </c>
+      <c r="B105">
+        <v>7679</v>
+      </c>
+      <c r="C105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" t="s">
+        <v>137</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>191</v>
+      </c>
+      <c r="B106">
+        <v>19086</v>
+      </c>
+      <c r="C106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" t="s">
+        <v>136</v>
+      </c>
+      <c r="F106" t="s">
+        <v>137</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>200</v>
+      </c>
+      <c r="B107">
+        <v>9050</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" t="s">
+        <v>120</v>
+      </c>
+      <c r="F107" t="s">
+        <v>156</v>
+      </c>
+      <c r="G107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>200</v>
+      </c>
+      <c r="B108">
+        <v>19649</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>185</v>
+      </c>
+      <c r="E108" t="s">
+        <v>120</v>
+      </c>
+      <c r="F108" t="s">
+        <v>156</v>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>201</v>
+      </c>
+      <c r="B109">
+        <v>148</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>186</v>
+      </c>
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+      <c r="F109" t="s">
+        <v>150</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>201</v>
+      </c>
+      <c r="B110">
+        <v>14633</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E110" t="s">
+        <v>130</v>
+      </c>
+      <c r="F110" t="s">
+        <v>150</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>211</v>
+      </c>
+      <c r="B111">
+        <v>13045</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" t="s">
+        <v>132</v>
+      </c>
+      <c r="F111" t="s">
+        <v>148</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>211</v>
+      </c>
+      <c r="B112">
+        <v>18622</v>
+      </c>
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" t="s">
+        <v>187</v>
+      </c>
+      <c r="E112" t="s">
+        <v>132</v>
+      </c>
+      <c r="F112" t="s">
+        <v>148</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>214</v>
+      </c>
+      <c r="B113">
+        <v>4575</v>
+      </c>
+      <c r="C113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113" t="s">
+        <v>189</v>
+      </c>
+      <c r="F113" t="s">
+        <v>160</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>214</v>
+      </c>
+      <c r="B114">
+        <v>17460</v>
+      </c>
+      <c r="C114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" t="s">
+        <v>189</v>
+      </c>
+      <c r="F114" t="s">
+        <v>160</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8525B8F-A002-436A-B284-29C3C2DA7A4F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CD6230-1BEF-450E-9E33-A2B1CE79CE4C}">
+  <dimension ref="A11:A218"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetData>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D353EBD-5826-4AE7-9C40-83B86D292FAF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -1041,7 +4455,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1050,12 +4514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1507200D-E627-4795-B078-7FAE9F60E1BF}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -1095,19 +4559,22 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{CF2D50C5-5D46-44FB-953E-CC75EA3B9960}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/Piau-Tsu-Im.xlsx
+++ b/output/Piau-Tsu-Im.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA531A0-7CA3-414E-B9A9-00D6D013A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482D1247-484F-4930-8295-D159279D3706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{376869EE-C11B-4B72-B8C1-658E9A86F99B}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="385">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>http://5b0988e595225.cdn.sohucs.com/images/20181227/3ea08fadf38e4e068afe1da68b0fc9a6.jpeg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>《</t>
   </si>
   <si>
@@ -361,9 +357,6 @@
     <t>足</t>
   </si>
   <si>
-    <t>裡</t>
-  </si>
-  <si>
     <t>姮</t>
   </si>
   <si>
@@ -433,9 +426,6 @@
     <t>oo</t>
   </si>
   <si>
-    <t>kiau1</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -463,12 +453,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>qu2</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>u</t>
   </si>
   <si>
@@ -490,9 +474,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>ci1</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -505,39 +486,21 @@
     <t>io</t>
   </si>
   <si>
-    <t>ko1</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
-    <t>tiong1</t>
-  </si>
-  <si>
     <t>iong</t>
   </si>
   <si>
     <t>kh</t>
   </si>
   <si>
-    <t>hu5</t>
-  </si>
-  <si>
-    <t>quan5</t>
-  </si>
-  <si>
     <t>gio2</t>
   </si>
   <si>
     <t>iu</t>
   </si>
   <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>ho5</t>
-  </si>
-  <si>
     <t>ciok4</t>
   </si>
   <si>
@@ -547,12 +510,6 @@
     <t>un</t>
   </si>
   <si>
-    <t>chui1</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
     <t>coo3</t>
   </si>
   <si>
@@ -562,12 +519,6 @@
     <t>au</t>
   </si>
   <si>
-    <t>tiong5</t>
-  </si>
-  <si>
-    <t>ku5</t>
-  </si>
-  <si>
     <t>hiu1</t>
   </si>
   <si>
@@ -604,9 +555,6 @@
     <t>ciong5</t>
   </si>
   <si>
-    <t>liong5</t>
-  </si>
-  <si>
     <t>jiau2</t>
   </si>
   <si>
@@ -614,12 +562,6 @@
   </si>
   <si>
     <t>lan5</t>
-  </si>
-  <si>
-    <t>siong1</t>
-  </si>
-  <si>
-    <t>lim5</t>
   </si>
   <si>
     <t>hiong1</t>
@@ -722,6 +664,575 @@
   <si>
     <t>孫郎微笑，坐來聲噴霜竹。</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ss2.baidu.com/6ONYsjip0QIZ8tyhnq/it/u=2622080450,418635976&amp;fm=173&amp;s=B15AE17F4100EAEC5A49CD770300E063&amp;w=640&amp;h=496&amp;img.JPEG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>念</t>
+  </si>
+  <si>
+    <t>奴</t>
+  </si>
+  <si>
+    <t>霽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>宋</t>
+  </si>
+  <si>
+    <t>代</t>
+  </si>
+  <si>
+    <t>黃</t>
+  </si>
+  <si>
+    <t>庭</t>
+  </si>
+  <si>
+    <t>堅</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>步</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>永</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>城</t>
+  </si>
+  <si>
+    <t>樓</t>
+  </si>
+  <si>
+    <t>寬</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>待</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>因</t>
+  </si>
+  <si>
+    <t>以</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>酌</t>
+  </si>
+  <si>
+    <t>客</t>
+  </si>
+  <si>
+    <t>孫</t>
+  </si>
+  <si>
+    <t>彥</t>
+  </si>
+  <si>
+    <t>立</t>
+  </si>
+  <si>
+    <t>善</t>
+  </si>
+  <si>
+    <t>笛</t>
+  </si>
+  <si>
+    <t>筆</t>
+  </si>
+  <si>
+    <t>府</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>點</t>
+  </si>
+  <si>
+    <t>淨</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>修</t>
+  </si>
+  <si>
+    <t>眉</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>綠</t>
+  </si>
+  <si>
+    <t>桂</t>
+  </si>
+  <si>
+    <t>影</t>
+  </si>
+  <si>
+    <t>誰</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>夕</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>輝</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>萬</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>娥</t>
+  </si>
+  <si>
+    <t>駕</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>輪</t>
+  </si>
+  <si>
+    <t>玉</t>
+  </si>
+  <si>
+    <t>寒</t>
+  </si>
+  <si>
+    <t>亂</t>
+  </si>
+  <si>
+    <t>爲</t>
+  </si>
+  <si>
+    <t>照</t>
+  </si>
+  <si>
+    <t>醽</t>
+  </si>
+  <si>
+    <t>醁</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>幽</t>
+  </si>
+  <si>
+    <t>徑</t>
+  </si>
+  <si>
+    <t>森</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>尊</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>最</t>
+  </si>
+  <si>
+    <t>愛</t>
+  </si>
+  <si>
+    <t>郎</t>
+  </si>
+  <si>
+    <t>微</t>
+  </si>
+  <si>
+    <t>笑</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>聲</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
+    <t>竹</t>
+  </si>
+  <si>
+    <t>liam7</t>
+  </si>
+  <si>
+    <t>ce3</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Øu2</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>tai7</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>ting5</t>
+  </si>
+  <si>
+    <t>kian1</t>
+  </si>
+  <si>
+    <t>pat4</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>guat8</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>sip8</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>chit4</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>jit8</t>
+  </si>
+  <si>
+    <t>tong5</t>
+  </si>
+  <si>
+    <t>poo7</t>
+  </si>
+  <si>
+    <t>ci7</t>
+  </si>
+  <si>
+    <t>Øing2</t>
+  </si>
+  <si>
+    <t>Øan1</t>
+  </si>
+  <si>
+    <t>sing5</t>
+  </si>
+  <si>
+    <t>khuan1</t>
+  </si>
+  <si>
+    <t>Øuan5</t>
+  </si>
+  <si>
+    <t>tai2</t>
+  </si>
+  <si>
+    <t>Øiu2</t>
+  </si>
+  <si>
+    <t>bing5</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ciu2</t>
+  </si>
+  <si>
+    <t>Øi2</t>
+  </si>
+  <si>
+    <t>khik4</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>sun1</t>
+  </si>
+  <si>
+    <t>guan7</t>
+  </si>
+  <si>
+    <t>lip8</t>
+  </si>
+  <si>
+    <t>sian2</t>
+  </si>
+  <si>
+    <t>tik8</t>
+  </si>
+  <si>
+    <t>pit4</t>
+  </si>
+  <si>
+    <t>hu2</t>
+  </si>
+  <si>
+    <t>bun5</t>
+  </si>
+  <si>
+    <t>tiam2</t>
+  </si>
+  <si>
+    <t>cing7</t>
+  </si>
+  <si>
+    <t>chiu1</t>
+  </si>
+  <si>
+    <t>san1</t>
+  </si>
+  <si>
+    <t>siu1</t>
+  </si>
+  <si>
+    <t>liok8</t>
+  </si>
+  <si>
+    <t>kue3</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>sik8</t>
+  </si>
+  <si>
+    <t>ching1</t>
+  </si>
+  <si>
+    <t>buan7</t>
+  </si>
+  <si>
+    <t>li2</t>
+  </si>
+  <si>
+    <t>thian1</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>ka3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Øit4</t>
+  </si>
+  <si>
+    <t>lun5</t>
+  </si>
+  <si>
+    <t>giok8</t>
+  </si>
+  <si>
+    <t>han5</t>
+  </si>
+  <si>
+    <t>luan7</t>
+  </si>
+  <si>
+    <t>Øi5</t>
+  </si>
+  <si>
+    <t>ciau2</t>
+  </si>
+  <si>
+    <t>ling5</t>
+  </si>
+  <si>
+    <t>go2</t>
+  </si>
+  <si>
+    <t>Øiu5</t>
+  </si>
+  <si>
+    <t>bian2</t>
+  </si>
+  <si>
+    <t>king3</t>
+  </si>
+  <si>
+    <t>bok8</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tik4</t>
+  </si>
+  <si>
+    <t>cun1</t>
+  </si>
+  <si>
+    <t>cian5</t>
+  </si>
+  <si>
+    <t>lo2</t>
+  </si>
+  <si>
+    <t>ci2</t>
+  </si>
+  <si>
+    <t>kang1</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>lam5</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>pik4</t>
+  </si>
+  <si>
+    <t>Øai3</t>
+  </si>
+  <si>
+    <t>long5</t>
+  </si>
+  <si>
+    <t>siau3</t>
+  </si>
+  <si>
+    <t>tiok4</t>
   </si>
 </sst>
 </file>
@@ -1529,62 +2040,62 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1594,27 +2105,27 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1629,17 +2140,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +2161,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED034448-E6EC-4ECE-AFEE-95EDE8A6CFB6}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1658,13 +2169,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1">
-        <v>5806</v>
+        <v>11930</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>123</v>
@@ -1676,18 +2187,18 @@
         <v>125</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>5951</v>
+        <v>11992</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>123</v>
@@ -1699,18 +2210,18 @@
         <v>125</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>12647</v>
+        <v>17682</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>123</v>
@@ -1722,15 +2233,15 @@
         <v>125</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>11930</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -1745,15 +2256,15 @@
         <v>128</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>11992</v>
+        <v>14571</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -1768,15 +2279,15 @@
         <v>128</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>17682</v>
+        <v>14717</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -1791,119 +2302,119 @@
         <v>128</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>261</v>
+        <v>10758</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" t="s">
         <v>130</v>
       </c>
-      <c r="F7" t="s">
-        <v>131</v>
-      </c>
       <c r="G7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>14571</v>
+        <v>15732</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
         <v>130</v>
       </c>
-      <c r="F8" t="s">
-        <v>131</v>
-      </c>
       <c r="G8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>14717</v>
+        <v>7679</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>10758</v>
+        <v>19086</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>15732</v>
+        <v>13979</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
         <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1911,387 +2422,387 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B12">
-        <v>2167</v>
+        <v>19592</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B13">
-        <v>6724</v>
+        <v>4289</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>7679</v>
+        <v>18016</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B15">
-        <v>19086</v>
+        <v>15920</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>6546</v>
+        <v>18555</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B17">
-        <v>18576</v>
+        <v>23023</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B18">
-        <v>7090</v>
+        <v>18417</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B19">
-        <v>18857</v>
+        <v>20717</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B20">
-        <v>2489</v>
+        <v>22977</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>2567</v>
+        <v>8638</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B22">
-        <v>13979</v>
+        <v>13833</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>19592</v>
+        <v>21332</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>6524</v>
+        <v>25349</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>12960</v>
+        <v>11930</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B26">
-        <v>884</v>
+        <v>11992</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B27">
-        <v>14852</v>
+        <v>17682</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B28">
-        <v>4289</v>
+        <v>261</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
         <v>128</v>
@@ -2302,19 +2813,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B29">
-        <v>18016</v>
+        <v>14571</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
         <v>128</v>
@@ -2325,183 +2836,183 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B30">
-        <v>15920</v>
+        <v>14717</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B31">
-        <v>18555</v>
+        <v>10758</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B32">
-        <v>23023</v>
+        <v>15732</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B33">
-        <v>18417</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B34">
-        <v>20717</v>
+        <v>14596</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B35">
-        <v>22977</v>
+        <v>14392</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B36">
-        <v>7082</v>
+        <v>19766</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B37">
-        <v>13350</v>
+        <v>5377</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
         <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -2509,22 +3020,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B38">
-        <v>18877</v>
+        <v>18151</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
         <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -2532,275 +3043,275 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B39">
-        <v>2324</v>
+        <v>8638</v>
       </c>
       <c r="C39" t="s">
         <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B40">
-        <v>8962</v>
+        <v>13833</v>
       </c>
       <c r="C40" t="s">
         <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B41">
-        <v>15666</v>
+        <v>21332</v>
       </c>
       <c r="C41" t="s">
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B42">
-        <v>19549</v>
+        <v>25349</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B43">
-        <v>8638</v>
+        <v>15726</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
         <v>130</v>
       </c>
-      <c r="F43" t="s">
-        <v>155</v>
-      </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B44">
-        <v>13833</v>
+        <v>20665</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" t="s">
         <v>130</v>
       </c>
-      <c r="F44" t="s">
-        <v>155</v>
-      </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B45">
-        <v>21332</v>
+        <v>10647</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B46">
-        <v>25349</v>
+        <v>15614</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B47">
-        <v>11930</v>
+        <v>7419</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
         <v>128</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B48">
-        <v>11992</v>
+        <v>19020</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
         <v>128</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="B49">
-        <v>17682</v>
+        <v>5126</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="B50">
-        <v>261</v>
+        <v>8113</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="E50" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2808,22 +3319,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="B51">
-        <v>14571</v>
+        <v>19196</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2831,22 +3342,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B52">
-        <v>14717</v>
+        <v>826</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -2854,68 +3365,68 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B53">
-        <v>10758</v>
+        <v>14772</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>362</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B54">
-        <v>15732</v>
+        <v>5371</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
         <v>133</v>
       </c>
-      <c r="E54" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" t="s">
-        <v>135</v>
-      </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="B55">
-        <v>176</v>
+        <v>18135</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2923,45 +3434,45 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="B56">
-        <v>14596</v>
+        <v>12596</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="B57">
-        <v>14392</v>
+        <v>18320</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -2969,45 +3480,45 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="B58">
-        <v>19766</v>
+        <v>555</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B59">
-        <v>2480</v>
+        <v>645</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -3015,22 +3526,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B60">
-        <v>2570</v>
+        <v>14714</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -3038,68 +3549,68 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B61">
-        <v>5377</v>
+        <v>12601</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B62">
-        <v>18151</v>
+        <v>18327</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="B63">
-        <v>8638</v>
+        <v>632</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3107,22 +3618,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="B64">
-        <v>13833</v>
+        <v>14684</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3130,206 +3641,206 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B65">
-        <v>21332</v>
+        <v>12823</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B66">
-        <v>25349</v>
+        <v>18443</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="B67">
-        <v>15726</v>
+        <v>4624</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="B68">
-        <v>20665</v>
+        <v>17585</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F68" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="B69">
-        <v>6522</v>
+        <v>20558</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="B70">
-        <v>12961</v>
+        <v>20604</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B71">
-        <v>10647</v>
+        <v>5380</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B72">
-        <v>15614</v>
+        <v>7641</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B73">
-        <v>7419</v>
+        <v>7679</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3337,22 +3848,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B74">
-        <v>19020</v>
+        <v>19086</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -3360,114 +3871,114 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="B75">
-        <v>5126</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="B76">
-        <v>8113</v>
+        <v>14633</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F76" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="B77">
-        <v>19196</v>
+        <v>13045</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="B78">
-        <v>5371</v>
+        <v>18622</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="B79">
-        <v>18135</v>
+        <v>4575</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E79" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3475,806 +3986,24 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="B80">
-        <v>12596</v>
+        <v>17460</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="G80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <v>151</v>
-      </c>
-      <c r="B81">
-        <v>18320</v>
-      </c>
-      <c r="C81" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" t="s">
-        <v>178</v>
-      </c>
-      <c r="E81" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" t="s">
-        <v>125</v>
-      </c>
-      <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
-        <v>152</v>
-      </c>
-      <c r="B82">
-        <v>555</v>
-      </c>
-      <c r="C82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" t="s">
-        <v>179</v>
-      </c>
-      <c r="E82" t="s">
-        <v>132</v>
-      </c>
-      <c r="F82" t="s">
-        <v>150</v>
-      </c>
-      <c r="G82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
-        <v>152</v>
-      </c>
-      <c r="B83">
-        <v>645</v>
-      </c>
-      <c r="C83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" t="s">
-        <v>179</v>
-      </c>
-      <c r="E83" t="s">
-        <v>132</v>
-      </c>
-      <c r="F83" t="s">
-        <v>150</v>
-      </c>
-      <c r="G83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
-        <v>152</v>
-      </c>
-      <c r="B84">
-        <v>14714</v>
-      </c>
-      <c r="C84" t="s">
-        <v>107</v>
-      </c>
-      <c r="D84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E84" t="s">
-        <v>132</v>
-      </c>
-      <c r="F84" t="s">
-        <v>150</v>
-      </c>
-      <c r="G84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
-        <v>158</v>
-      </c>
-      <c r="B85">
-        <v>6997</v>
-      </c>
-      <c r="C85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85" t="s">
-        <v>180</v>
-      </c>
-      <c r="E85" t="s">
-        <v>120</v>
-      </c>
-      <c r="F85" t="s">
-        <v>150</v>
-      </c>
-      <c r="G85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86">
-        <v>158</v>
-      </c>
-      <c r="B86">
-        <v>18837</v>
-      </c>
-      <c r="C86" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" t="s">
-        <v>180</v>
-      </c>
-      <c r="E86" t="s">
-        <v>120</v>
-      </c>
-      <c r="F86" t="s">
-        <v>150</v>
-      </c>
-      <c r="G86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
-        <v>162</v>
-      </c>
-      <c r="B87">
-        <v>12601</v>
-      </c>
-      <c r="C87" t="s">
-        <v>109</v>
-      </c>
-      <c r="D87" t="s">
-        <v>181</v>
-      </c>
-      <c r="E87" t="s">
-        <v>141</v>
-      </c>
-      <c r="F87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
-        <v>162</v>
-      </c>
-      <c r="B88">
-        <v>18327</v>
-      </c>
-      <c r="C88" t="s">
-        <v>109</v>
-      </c>
-      <c r="D88" t="s">
-        <v>181</v>
-      </c>
-      <c r="E88" t="s">
-        <v>141</v>
-      </c>
-      <c r="F88" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <v>163</v>
-      </c>
-      <c r="B89">
-        <v>7090</v>
-      </c>
-      <c r="C89" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" t="s">
-        <v>149</v>
-      </c>
-      <c r="E89" t="s">
-        <v>127</v>
-      </c>
-      <c r="F89" t="s">
-        <v>150</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90">
-        <v>163</v>
-      </c>
-      <c r="B90">
-        <v>18857</v>
-      </c>
-      <c r="C90" t="s">
-        <v>80</v>
-      </c>
-      <c r="D90" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" t="s">
-        <v>150</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91">
-        <v>170</v>
-      </c>
-      <c r="B91">
-        <v>632</v>
-      </c>
-      <c r="C91" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" t="s">
-        <v>182</v>
-      </c>
-      <c r="E91" t="s">
-        <v>124</v>
-      </c>
-      <c r="F91" t="s">
-        <v>150</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <v>170</v>
-      </c>
-      <c r="B92">
-        <v>14684</v>
-      </c>
-      <c r="C92" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" t="s">
-        <v>182</v>
-      </c>
-      <c r="E92" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" t="s">
-        <v>150</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
-        <v>171</v>
-      </c>
-      <c r="B93">
-        <v>12823</v>
-      </c>
-      <c r="C93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" t="s">
-        <v>172</v>
-      </c>
-      <c r="E93" t="s">
-        <v>127</v>
-      </c>
-      <c r="F93" t="s">
-        <v>148</v>
-      </c>
-      <c r="G93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
-        <v>171</v>
-      </c>
-      <c r="B94">
-        <v>18443</v>
-      </c>
-      <c r="C94" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" t="s">
-        <v>172</v>
-      </c>
-      <c r="E94" t="s">
-        <v>127</v>
-      </c>
-      <c r="F94" t="s">
-        <v>148</v>
-      </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <v>173</v>
-      </c>
-      <c r="B95">
-        <v>6524</v>
-      </c>
-      <c r="C95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" t="s">
-        <v>157</v>
-      </c>
-      <c r="E95" t="s">
-        <v>130</v>
-      </c>
-      <c r="F95" t="s">
-        <v>148</v>
-      </c>
-      <c r="G95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
-        <v>173</v>
-      </c>
-      <c r="B96">
-        <v>12960</v>
-      </c>
-      <c r="C96" t="s">
-        <v>84</v>
-      </c>
-      <c r="D96" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" t="s">
-        <v>130</v>
-      </c>
-      <c r="F96" t="s">
-        <v>148</v>
-      </c>
-      <c r="G96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>179</v>
-      </c>
-      <c r="B97">
-        <v>4624</v>
-      </c>
-      <c r="C97" t="s">
-        <v>112</v>
-      </c>
-      <c r="D97" t="s">
-        <v>183</v>
-      </c>
-      <c r="E97" t="s">
-        <v>120</v>
-      </c>
-      <c r="F97" t="s">
-        <v>145</v>
-      </c>
-      <c r="G97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>179</v>
-      </c>
-      <c r="B98">
-        <v>17585</v>
-      </c>
-      <c r="C98" t="s">
-        <v>112</v>
-      </c>
-      <c r="D98" t="s">
-        <v>183</v>
-      </c>
-      <c r="E98" t="s">
-        <v>120</v>
-      </c>
-      <c r="F98" t="s">
-        <v>145</v>
-      </c>
-      <c r="G98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
-        <v>183</v>
-      </c>
-      <c r="B99">
-        <v>7127</v>
-      </c>
-      <c r="C99" t="s">
-        <v>113</v>
-      </c>
-      <c r="D99" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" t="s">
-        <v>150</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>183</v>
-      </c>
-      <c r="B100">
-        <v>18942</v>
-      </c>
-      <c r="C100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100" t="s">
-        <v>136</v>
-      </c>
-      <c r="F100" t="s">
-        <v>150</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>184</v>
-      </c>
-      <c r="B101">
-        <v>20558</v>
-      </c>
-      <c r="C101" t="s">
-        <v>114</v>
-      </c>
-      <c r="D101" t="s">
-        <v>158</v>
-      </c>
-      <c r="E101" t="s">
-        <v>132</v>
-      </c>
-      <c r="F101" t="s">
-        <v>159</v>
-      </c>
-      <c r="G101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>184</v>
-      </c>
-      <c r="B102">
-        <v>20604</v>
-      </c>
-      <c r="C102" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E102" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" t="s">
-        <v>159</v>
-      </c>
-      <c r="G102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <v>190</v>
-      </c>
-      <c r="B103">
-        <v>5380</v>
-      </c>
-      <c r="C103" t="s">
-        <v>115</v>
-      </c>
-      <c r="D103" t="s">
-        <v>171</v>
-      </c>
-      <c r="E103" t="s">
-        <v>130</v>
-      </c>
-      <c r="F103" t="s">
-        <v>138</v>
-      </c>
-      <c r="G103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
-        <v>190</v>
-      </c>
-      <c r="B104">
-        <v>7641</v>
-      </c>
-      <c r="C104" t="s">
-        <v>115</v>
-      </c>
-      <c r="D104" t="s">
-        <v>171</v>
-      </c>
-      <c r="E104" t="s">
-        <v>130</v>
-      </c>
-      <c r="F104" t="s">
-        <v>138</v>
-      </c>
-      <c r="G104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
-        <v>191</v>
-      </c>
-      <c r="B105">
-        <v>7679</v>
-      </c>
-      <c r="C105" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" t="s">
-        <v>144</v>
-      </c>
-      <c r="E105" t="s">
-        <v>136</v>
-      </c>
-      <c r="F105" t="s">
-        <v>137</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
-        <v>191</v>
-      </c>
-      <c r="B106">
-        <v>19086</v>
-      </c>
-      <c r="C106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D106" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F106" t="s">
-        <v>137</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
-        <v>200</v>
-      </c>
-      <c r="B107">
-        <v>9050</v>
-      </c>
-      <c r="C107" t="s">
-        <v>116</v>
-      </c>
-      <c r="D107" t="s">
-        <v>185</v>
-      </c>
-      <c r="E107" t="s">
-        <v>120</v>
-      </c>
-      <c r="F107" t="s">
-        <v>156</v>
-      </c>
-      <c r="G107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
-        <v>200</v>
-      </c>
-      <c r="B108">
-        <v>19649</v>
-      </c>
-      <c r="C108" t="s">
-        <v>116</v>
-      </c>
-      <c r="D108" t="s">
-        <v>185</v>
-      </c>
-      <c r="E108" t="s">
-        <v>120</v>
-      </c>
-      <c r="F108" t="s">
-        <v>156</v>
-      </c>
-      <c r="G108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109">
-        <v>201</v>
-      </c>
-      <c r="B109">
-        <v>148</v>
-      </c>
-      <c r="C109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D109" t="s">
-        <v>186</v>
-      </c>
-      <c r="E109" t="s">
-        <v>130</v>
-      </c>
-      <c r="F109" t="s">
-        <v>150</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
-        <v>201</v>
-      </c>
-      <c r="B110">
-        <v>14633</v>
-      </c>
-      <c r="C110" t="s">
-        <v>117</v>
-      </c>
-      <c r="D110" t="s">
-        <v>186</v>
-      </c>
-      <c r="E110" t="s">
-        <v>130</v>
-      </c>
-      <c r="F110" t="s">
-        <v>150</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
-        <v>211</v>
-      </c>
-      <c r="B111">
-        <v>13045</v>
-      </c>
-      <c r="C111" t="s">
-        <v>118</v>
-      </c>
-      <c r="D111" t="s">
-        <v>187</v>
-      </c>
-      <c r="E111" t="s">
-        <v>132</v>
-      </c>
-      <c r="F111" t="s">
-        <v>148</v>
-      </c>
-      <c r="G111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
-        <v>211</v>
-      </c>
-      <c r="B112">
-        <v>18622</v>
-      </c>
-      <c r="C112" t="s">
-        <v>118</v>
-      </c>
-      <c r="D112" t="s">
-        <v>187</v>
-      </c>
-      <c r="E112" t="s">
-        <v>132</v>
-      </c>
-      <c r="F112" t="s">
-        <v>148</v>
-      </c>
-      <c r="G112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>214</v>
-      </c>
-      <c r="B113">
-        <v>4575</v>
-      </c>
-      <c r="C113" t="s">
-        <v>119</v>
-      </c>
-      <c r="D113" t="s">
-        <v>188</v>
-      </c>
-      <c r="E113" t="s">
-        <v>189</v>
-      </c>
-      <c r="F113" t="s">
-        <v>160</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>214</v>
-      </c>
-      <c r="B114">
-        <v>17460</v>
-      </c>
-      <c r="C114" t="s">
-        <v>119</v>
-      </c>
-      <c r="D114" t="s">
-        <v>188</v>
-      </c>
-      <c r="E114" t="s">
-        <v>189</v>
-      </c>
-      <c r="F114" t="s">
-        <v>160</v>
-      </c>
-      <c r="G114">
         <v>1</v>
       </c>
     </row>
@@ -4286,7 +4015,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8525B8F-A002-436A-B284-29C3C2DA7A4F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4297,10 +4026,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="C1">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4308,10 +4037,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4319,10 +4048,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4330,10 +4059,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4341,10 +4070,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C5">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4352,10 +4081,395 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>99</v>
       </c>
-      <c r="C6">
-        <v>177</v>
+      <c r="C26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4366,7 +4480,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CD6230-1BEF-450E-9E33-A2B1CE79CE4C}">
-  <dimension ref="A11:A218"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -4374,65 +4488,2940 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <sheetData>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="1"/>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51">
+      <c r="A11" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51">
+      <c r="A17" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51">
+      <c r="A18" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" t="s">
+        <v>325</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>304</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>332</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
+        <v>332</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" t="s">
+        <v>333</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>335</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>231</v>
+      </c>
+      <c r="B62" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" t="s">
+        <v>315</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" t="s">
+        <v>328</v>
+      </c>
+      <c r="D75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="51">
+      <c r="A80" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="51">
+      <c r="A81" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" t="s">
+        <v>300</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>241</v>
+      </c>
+      <c r="B91" t="s">
+        <v>344</v>
+      </c>
+      <c r="C91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" t="s">
+        <v>345</v>
+      </c>
+      <c r="C93" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>245</v>
+      </c>
+      <c r="B96" t="s">
+        <v>346</v>
+      </c>
+      <c r="C96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="51">
+      <c r="A98" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="51">
+      <c r="A99" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" t="s">
+        <v>347</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>348</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" t="s">
+        <v>320</v>
+      </c>
+      <c r="C101" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>251</v>
+      </c>
+      <c r="B110" t="s">
+        <v>349</v>
+      </c>
+      <c r="C110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" t="s">
+        <v>332</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" t="s">
+        <v>135</v>
+      </c>
+      <c r="D111" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" t="s">
+        <v>130</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="51">
+      <c r="A116" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="51">
+      <c r="A117" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" t="s">
+        <v>328</v>
+      </c>
+      <c r="D118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118">
+        <v>7</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>257</v>
+      </c>
+      <c r="B120" t="s">
+        <v>350</v>
+      </c>
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" t="s">
+        <v>353</v>
+      </c>
+      <c r="C121" t="s">
+        <v>354</v>
+      </c>
+      <c r="D121" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>100</v>
+      </c>
+      <c r="B126" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" t="s">
+        <v>355</v>
+      </c>
+      <c r="C128" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" t="s">
+        <v>356</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" t="s">
+        <v>357</v>
+      </c>
+      <c r="C130" t="s">
+        <v>302</v>
+      </c>
+      <c r="D130" t="s">
+        <v>315</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" t="s">
+        <v>118</v>
+      </c>
+      <c r="D131" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" t="s">
+        <v>147</v>
+      </c>
+      <c r="E132">
+        <v>8</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="51">
+      <c r="A134" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="51">
+      <c r="A135" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" t="s">
+        <v>360</v>
+      </c>
+      <c r="C136" t="s">
+        <v>127</v>
+      </c>
+      <c r="D136" t="s">
+        <v>139</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" t="s">
+        <v>121</v>
+      </c>
+      <c r="D137" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" t="s">
+        <v>118</v>
+      </c>
+      <c r="D138" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>266</v>
+      </c>
+      <c r="B139" t="s">
+        <v>361</v>
+      </c>
+      <c r="C139" t="s">
+        <v>118</v>
+      </c>
+      <c r="D139" t="s">
+        <v>125</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" t="s">
+        <v>362</v>
+      </c>
+      <c r="C141" t="s">
+        <v>302</v>
+      </c>
+      <c r="D141" t="s">
+        <v>137</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" t="s">
+        <v>161</v>
+      </c>
+      <c r="C143" t="s">
+        <v>127</v>
+      </c>
+      <c r="D143" t="s">
+        <v>133</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" t="s">
+        <v>363</v>
+      </c>
+      <c r="C144" t="s">
+        <v>129</v>
+      </c>
+      <c r="D144" t="s">
+        <v>122</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" t="s">
+        <v>364</v>
+      </c>
+      <c r="C145" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" t="s">
+        <v>132</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>270</v>
+      </c>
+      <c r="B146" t="s">
+        <v>346</v>
+      </c>
+      <c r="C146" t="s">
+        <v>118</v>
+      </c>
+      <c r="D146" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146">
+        <v>8</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="51">
+      <c r="A148" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="51">
+      <c r="A149" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>271</v>
+      </c>
+      <c r="B150" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" t="s">
+        <v>118</v>
+      </c>
+      <c r="D150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>104</v>
+      </c>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" t="s">
+        <v>131</v>
+      </c>
+      <c r="D151" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>105</v>
+      </c>
+      <c r="B152" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" t="s">
+        <v>129</v>
+      </c>
+      <c r="D152" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>272</v>
+      </c>
+      <c r="B153" t="s">
+        <v>365</v>
+      </c>
+      <c r="C153" t="s">
+        <v>134</v>
+      </c>
+      <c r="D153" t="s">
+        <v>141</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" t="s">
+        <v>366</v>
+      </c>
+      <c r="C155" t="s">
+        <v>302</v>
+      </c>
+      <c r="D155" t="s">
+        <v>145</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" t="s">
+        <v>367</v>
+      </c>
+      <c r="C157" t="s">
+        <v>328</v>
+      </c>
+      <c r="D157" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" t="s">
+        <v>368</v>
+      </c>
+      <c r="C160" t="s">
+        <v>121</v>
+      </c>
+      <c r="D160" t="s">
+        <v>132</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>107</v>
+      </c>
+      <c r="B162" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162" t="s">
+        <v>136</v>
+      </c>
+      <c r="D162" t="s">
+        <v>122</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>219</v>
+      </c>
+      <c r="B164" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164" t="s">
+        <v>302</v>
+      </c>
+      <c r="D164" t="s">
+        <v>125</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>279</v>
+      </c>
+      <c r="B166" t="s">
+        <v>369</v>
+      </c>
+      <c r="C166" t="s">
+        <v>328</v>
+      </c>
+      <c r="D166" t="s">
+        <v>370</v>
+      </c>
+      <c r="E166">
+        <v>8</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="51">
+      <c r="A168" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="51">
+      <c r="A169" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B170" t="s">
+        <v>165</v>
+      </c>
+      <c r="C170" t="s">
+        <v>121</v>
+      </c>
+      <c r="D170" t="s">
+        <v>142</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>109</v>
+      </c>
+      <c r="B171" t="s">
+        <v>156</v>
+      </c>
+      <c r="C171" t="s">
+        <v>124</v>
+      </c>
+      <c r="D171" t="s">
+        <v>141</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>255</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" t="s">
+        <v>328</v>
+      </c>
+      <c r="D176" t="s">
+        <v>125</v>
+      </c>
+      <c r="E176">
+        <v>7</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>256</v>
+      </c>
+      <c r="B177" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" t="s">
+        <v>118</v>
+      </c>
+      <c r="D177" t="s">
+        <v>137</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" t="s">
+        <v>166</v>
+      </c>
+      <c r="C179" t="s">
+        <v>118</v>
+      </c>
+      <c r="D179" t="s">
+        <v>139</v>
+      </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180" t="s">
+        <v>124</v>
+      </c>
+      <c r="D180" t="s">
+        <v>332</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" t="s">
+        <v>372</v>
+      </c>
+      <c r="C181" t="s">
+        <v>129</v>
+      </c>
+      <c r="D181" t="s">
+        <v>148</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>283</v>
+      </c>
+      <c r="B182" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" t="s">
+        <v>129</v>
+      </c>
+      <c r="D182" t="s">
+        <v>133</v>
+      </c>
+      <c r="E182">
+        <v>5</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>112</v>
+      </c>
+      <c r="B184" t="s">
+        <v>146</v>
+      </c>
+      <c r="C184" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" t="s">
+        <v>147</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="51">
+      <c r="A186" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="51">
+      <c r="A187" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>284</v>
+      </c>
+      <c r="B188" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" t="s">
+        <v>118</v>
+      </c>
+      <c r="D188" t="s">
+        <v>141</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>285</v>
+      </c>
+      <c r="B189" t="s">
+        <v>375</v>
+      </c>
+      <c r="C189" t="s">
+        <v>129</v>
+      </c>
+      <c r="D189" t="s">
+        <v>137</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>113</v>
+      </c>
+      <c r="B190" t="s">
+        <v>155</v>
+      </c>
+      <c r="C190" t="s">
+        <v>127</v>
+      </c>
+      <c r="D190" t="s">
+        <v>133</v>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>77</v>
+      </c>
+      <c r="B191" t="s">
+        <v>138</v>
+      </c>
+      <c r="C191" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" t="s">
+        <v>132</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>286</v>
+      </c>
+      <c r="B193" t="s">
+        <v>376</v>
+      </c>
+      <c r="C193" t="s">
+        <v>121</v>
+      </c>
+      <c r="D193" t="s">
+        <v>377</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>287</v>
+      </c>
+      <c r="B194" t="s">
+        <v>378</v>
+      </c>
+      <c r="C194" t="s">
+        <v>118</v>
+      </c>
+      <c r="D194" t="s">
+        <v>379</v>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>286</v>
+      </c>
+      <c r="B195" t="s">
+        <v>376</v>
+      </c>
+      <c r="C195" t="s">
+        <v>121</v>
+      </c>
+      <c r="D195" t="s">
+        <v>377</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>288</v>
+      </c>
+      <c r="B196" t="s">
+        <v>380</v>
+      </c>
+      <c r="C196" t="s">
+        <v>308</v>
+      </c>
+      <c r="D196" t="s">
+        <v>332</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>290</v>
+      </c>
+      <c r="B199" t="s">
+        <v>381</v>
+      </c>
+      <c r="C199" t="s">
+        <v>302</v>
+      </c>
+      <c r="D199" t="s">
+        <v>304</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" t="s">
+        <v>167</v>
+      </c>
+      <c r="C201" t="s">
+        <v>127</v>
+      </c>
+      <c r="D201" t="s">
+        <v>142</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>232</v>
+      </c>
+      <c r="B202" t="s">
+        <v>337</v>
+      </c>
+      <c r="C202" t="s">
+        <v>124</v>
+      </c>
+      <c r="D202" t="s">
+        <v>332</v>
+      </c>
+      <c r="E202">
+        <v>8</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="51">
+      <c r="A204" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="51">
+      <c r="A205" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>228</v>
+      </c>
+      <c r="B206" t="s">
+        <v>333</v>
+      </c>
+      <c r="C206" t="s">
+        <v>131</v>
+      </c>
+      <c r="D206" t="s">
+        <v>148</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>291</v>
+      </c>
+      <c r="B207" t="s">
+        <v>382</v>
+      </c>
+      <c r="C207" t="s">
+        <v>118</v>
+      </c>
+      <c r="D207" t="s">
+        <v>128</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>293</v>
+      </c>
+      <c r="B209" t="s">
+        <v>383</v>
+      </c>
+      <c r="C209" t="s">
+        <v>131</v>
+      </c>
+      <c r="D209" t="s">
+        <v>122</v>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>116</v>
+      </c>
+      <c r="B211" t="s">
+        <v>168</v>
+      </c>
+      <c r="C211" t="s">
+        <v>129</v>
+      </c>
+      <c r="D211" t="s">
+        <v>141</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>295</v>
+      </c>
+      <c r="B213" t="s">
+        <v>138</v>
+      </c>
+      <c r="C213" t="s">
+        <v>131</v>
+      </c>
+      <c r="D213" t="s">
+        <v>132</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>117</v>
+      </c>
+      <c r="B214" t="s">
+        <v>169</v>
+      </c>
+      <c r="C214" t="s">
+        <v>170</v>
+      </c>
+      <c r="D214" t="s">
+        <v>148</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>297</v>
+      </c>
+      <c r="B216" t="s">
+        <v>384</v>
+      </c>
+      <c r="C216" t="s">
+        <v>124</v>
+      </c>
+      <c r="D216" t="s">
+        <v>147</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="51">
+      <c r="A218" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4470,42 +7459,42 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +7508,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -4567,7 +7556,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/output/Piau-Tsu-Im.xlsx
+++ b/output/Piau-Tsu-Im.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482D1247-484F-4930-8295-D159279D3706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D938A3B-0FF7-4986-BB83-960428B48E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{376869EE-C11B-4B72-B8C1-658E9A86F99B}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="438">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1082,9 +1082,6 @@
     <t>sun1</t>
   </si>
   <si>
-    <t>guan7</t>
-  </si>
-  <si>
     <t>lip8</t>
   </si>
   <si>
@@ -1181,9 +1178,6 @@
     <t>Øiu5</t>
   </si>
   <si>
-    <t>bian2</t>
-  </si>
-  <si>
     <t>king3</t>
   </si>
   <si>
@@ -1233,13 +1227,185 @@
   </si>
   <si>
     <t>tiok4</t>
+  </si>
+  <si>
+    <t>loo5</t>
+  </si>
+  <si>
+    <t>kiau1</t>
+  </si>
+  <si>
+    <t>song3</t>
+  </si>
+  <si>
+    <t>ci1</t>
+  </si>
+  <si>
+    <t>lio5</t>
+  </si>
+  <si>
+    <t>ko1</t>
+  </si>
+  <si>
+    <t>tiong1</t>
+  </si>
+  <si>
+    <t>hu5</t>
+  </si>
+  <si>
+    <t>hu1</t>
+  </si>
+  <si>
+    <t>gio7</t>
+  </si>
+  <si>
+    <t>Øin1</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>kim1</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>ho5</t>
+  </si>
+  <si>
+    <t>ciong3</t>
+  </si>
+  <si>
+    <t>chui1</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>gak8</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>lok8</t>
+  </si>
+  <si>
+    <t>tiong5</t>
+  </si>
+  <si>
+    <t>ku5</t>
+  </si>
+  <si>
+    <t>kio1</t>
+  </si>
+  <si>
+    <t>ku3</t>
+  </si>
+  <si>
+    <t>kio3</t>
+  </si>
+  <si>
+    <t>ka1</t>
+  </si>
+  <si>
+    <t>bi5</t>
+  </si>
+  <si>
+    <t>sin1</t>
+  </si>
+  <si>
+    <t>soo3</t>
+  </si>
+  <si>
+    <t>sui5</t>
+  </si>
+  <si>
+    <t>pian7</t>
+  </si>
+  <si>
+    <t>hui1</t>
+  </si>
+  <si>
+    <t>go5</t>
+  </si>
+  <si>
+    <t>ling7</t>
+  </si>
+  <si>
+    <t>phian3</t>
+  </si>
+  <si>
+    <t>tui1</t>
+  </si>
+  <si>
+    <t>liong5</t>
+  </si>
+  <si>
+    <t>Øiu1</t>
+  </si>
+  <si>
+    <t>sim1</t>
+  </si>
+  <si>
+    <t>siong1</t>
+  </si>
+  <si>
+    <t>ping5</t>
+  </si>
+  <si>
+    <t>cua3</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>lim5</t>
+  </si>
+  <si>
+    <t>hong3</t>
+  </si>
+  <si>
+    <t>bui5</t>
+  </si>
+  <si>
+    <t>lai5</t>
+  </si>
+  <si>
+    <t>oo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -1287,6 +1453,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1322,7 +1495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,6 +1513,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2161,7 +2337,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED034448-E6EC-4ECE-AFEE-95EDE8A6CFB6}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2169,252 +2345,252 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1">
-        <v>11930</v>
+        <v>5806</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>384</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>11992</v>
+        <v>5951</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>17682</v>
+        <v>12647</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>261</v>
+        <v>11930</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>14571</v>
+        <v>11992</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>14717</v>
+        <v>17682</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>10758</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>15732</v>
+        <v>14571</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>7679</v>
+        <v>14717</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>19086</v>
+        <v>10758</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>13979</v>
+        <v>15732</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2422,229 +2598,229 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>19592</v>
+        <v>2167</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>4289</v>
+        <v>6724</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>18016</v>
+        <v>7679</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>15920</v>
+        <v>19086</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>18555</v>
+        <v>6546</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>23023</v>
+        <v>18576</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B18">
-        <v>18417</v>
+        <v>7090</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>20717</v>
+        <v>18857</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B20">
-        <v>22977</v>
+        <v>2489</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B21">
-        <v>8638</v>
+        <v>2567</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>391</v>
       </c>
       <c r="E21" t="s">
         <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2652,160 +2828,160 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B22">
-        <v>13833</v>
+        <v>13979</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>21332</v>
+        <v>19592</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>392</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>25349</v>
+        <v>6524</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>397</v>
       </c>
       <c r="E24" t="s">
         <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>11930</v>
+        <v>12960</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>397</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B26">
-        <v>11992</v>
+        <v>884</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B27">
-        <v>17682</v>
+        <v>14852</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>261</v>
+        <v>4289</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2813,22 +2989,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B29">
-        <v>14571</v>
+        <v>18016</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -2836,183 +3012,183 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>14717</v>
+        <v>15920</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B31">
-        <v>10758</v>
+        <v>18555</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B32">
-        <v>15732</v>
+        <v>23023</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>301</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B33">
-        <v>176</v>
+        <v>18417</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B34">
-        <v>14596</v>
+        <v>20717</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>401</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>402</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B35">
-        <v>14392</v>
+        <v>22977</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>403</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B36">
-        <v>19766</v>
+        <v>7082</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>404</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B37">
-        <v>5377</v>
+        <v>13350</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3020,22 +3196,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B38">
-        <v>18151</v>
+        <v>18877</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -3043,45 +3219,45 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B39">
-        <v>8638</v>
+        <v>2324</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>405</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B40">
-        <v>13833</v>
+        <v>8962</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>406</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3089,229 +3265,229 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B41">
-        <v>21332</v>
+        <v>15666</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B42">
-        <v>25349</v>
+        <v>19549</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B43">
-        <v>15726</v>
+        <v>8638</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B44">
-        <v>20665</v>
+        <v>13833</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B45">
-        <v>10647</v>
+        <v>21332</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B46">
-        <v>15614</v>
+        <v>25349</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B47">
-        <v>7419</v>
+        <v>11930</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B48">
-        <v>19020</v>
+        <v>11992</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="B49">
-        <v>5126</v>
+        <v>17682</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F49" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B50">
-        <v>8113</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -3319,22 +3495,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B51">
-        <v>19196</v>
+        <v>14571</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -3342,22 +3518,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="B52">
-        <v>826</v>
+        <v>14717</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>362</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -3365,68 +3541,68 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="B53">
-        <v>14772</v>
+        <v>10758</v>
       </c>
       <c r="C53" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="E53" t="s">
         <v>302</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="B54">
-        <v>5371</v>
+        <v>15732</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="F54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
+        <v>89</v>
+      </c>
+      <c r="B55">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" t="s">
         <v>143</v>
       </c>
-      <c r="B55">
-        <v>18135</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" t="s">
-        <v>127</v>
-      </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3434,45 +3610,45 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B56">
-        <v>12596</v>
+        <v>14596</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="B57">
-        <v>18320</v>
+        <v>14392</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -3480,45 +3656,45 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="B58">
-        <v>555</v>
+        <v>19766</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F58" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B59">
-        <v>645</v>
+        <v>2480</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>390</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F59" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -3526,91 +3702,91 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B60">
-        <v>14714</v>
+        <v>2570</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="B61">
-        <v>12601</v>
+        <v>5377</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="B62">
-        <v>18327</v>
+        <v>18151</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>414</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="B63">
-        <v>632</v>
+        <v>8638</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3618,22 +3794,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="B64">
-        <v>14684</v>
+        <v>13833</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3641,206 +3817,206 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B65">
-        <v>12823</v>
+        <v>21332</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B66">
-        <v>18443</v>
+        <v>25349</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="B67">
-        <v>4624</v>
+        <v>15726</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="B68">
-        <v>17585</v>
+        <v>20665</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="B69">
-        <v>20558</v>
+        <v>6522</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="B70">
-        <v>20604</v>
+        <v>12961</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="B71">
-        <v>5380</v>
+        <v>10647</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="B72">
-        <v>7641</v>
+        <v>15614</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B73">
-        <v>7679</v>
+        <v>7419</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3848,22 +4024,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B74">
-        <v>19086</v>
+        <v>19020</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -3871,139 +4047,967 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="B75">
-        <v>148</v>
+        <v>5126</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="B76">
-        <v>14633</v>
+        <v>8113</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>363</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="B77">
-        <v>13045</v>
+        <v>19196</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F77" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="B78">
-        <v>18622</v>
+        <v>826</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="F78" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="B79">
-        <v>4575</v>
+        <v>14772</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="E79" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="B80">
-        <v>17460</v>
+        <v>5371</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>418</v>
       </c>
       <c r="E80" t="s">
         <v>170</v>
       </c>
       <c r="F80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>143</v>
+      </c>
+      <c r="B81">
+        <v>18135</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>151</v>
+      </c>
+      <c r="B82">
+        <v>12596</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" t="s">
+        <v>122</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>151</v>
+      </c>
+      <c r="B83">
+        <v>18320</v>
+      </c>
+      <c r="C83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>152</v>
+      </c>
+      <c r="B84">
+        <v>555</v>
+      </c>
+      <c r="C84" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>142</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>152</v>
+      </c>
+      <c r="B85">
+        <v>645</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>152</v>
+      </c>
+      <c r="B86">
+        <v>14714</v>
+      </c>
+      <c r="C86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>158</v>
+      </c>
+      <c r="B87">
+        <v>6997</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" t="s">
+        <v>420</v>
+      </c>
+      <c r="E87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F87" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>158</v>
+      </c>
+      <c r="B88">
+        <v>18837</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>420</v>
+      </c>
+      <c r="E88" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>162</v>
+      </c>
+      <c r="B89">
+        <v>12601</v>
+      </c>
+      <c r="C89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" t="s">
+        <v>122</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>162</v>
+      </c>
+      <c r="B90">
+        <v>18327</v>
+      </c>
+      <c r="C90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" t="s">
+        <v>164</v>
+      </c>
+      <c r="E90" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" t="s">
+        <v>122</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>163</v>
+      </c>
+      <c r="B91">
+        <v>7090</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" t="s">
+        <v>389</v>
+      </c>
+      <c r="E91" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>163</v>
+      </c>
+      <c r="B92">
+        <v>18857</v>
+      </c>
+      <c r="C92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" t="s">
+        <v>389</v>
+      </c>
+      <c r="E92" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>170</v>
+      </c>
+      <c r="B93">
+        <v>632</v>
+      </c>
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>170</v>
+      </c>
+      <c r="B94">
+        <v>14684</v>
+      </c>
+      <c r="C94" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" t="s">
+        <v>121</v>
+      </c>
+      <c r="F94" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>171</v>
+      </c>
+      <c r="B95">
+        <v>12823</v>
+      </c>
+      <c r="C95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" t="s">
+        <v>156</v>
+      </c>
+      <c r="E95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" t="s">
+        <v>141</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>171</v>
+      </c>
+      <c r="B96">
+        <v>18443</v>
+      </c>
+      <c r="C96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>173</v>
+      </c>
+      <c r="B97">
+        <v>6524</v>
+      </c>
+      <c r="C97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" t="s">
+        <v>397</v>
+      </c>
+      <c r="E97" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>173</v>
+      </c>
+      <c r="B98">
+        <v>12960</v>
+      </c>
+      <c r="C98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" t="s">
+        <v>397</v>
+      </c>
+      <c r="E98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" t="s">
+        <v>141</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>179</v>
+      </c>
+      <c r="B99">
+        <v>4624</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" t="s">
+        <v>118</v>
+      </c>
+      <c r="F99" t="s">
+        <v>139</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>179</v>
+      </c>
+      <c r="B100">
+        <v>17585</v>
+      </c>
+      <c r="C100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" t="s">
+        <v>118</v>
+      </c>
+      <c r="F100" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>183</v>
+      </c>
+      <c r="B101">
+        <v>7127</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" t="s">
+        <v>423</v>
+      </c>
+      <c r="E101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" t="s">
+        <v>142</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>183</v>
+      </c>
+      <c r="B102">
+        <v>18942</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>423</v>
+      </c>
+      <c r="E102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" t="s">
+        <v>142</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>184</v>
+      </c>
+      <c r="B103">
+        <v>20558</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" t="s">
+        <v>147</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>184</v>
+      </c>
+      <c r="B104">
+        <v>20604</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" t="s">
+        <v>147</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>190</v>
+      </c>
+      <c r="B105">
+        <v>5380</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" t="s">
+        <v>133</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>190</v>
+      </c>
+      <c r="B106">
+        <v>7641</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" t="s">
+        <v>424</v>
+      </c>
+      <c r="E106" t="s">
+        <v>308</v>
+      </c>
+      <c r="F106" t="s">
+        <v>132</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>191</v>
+      </c>
+      <c r="B107">
+        <v>7679</v>
+      </c>
+      <c r="C107" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" t="s">
+        <v>138</v>
+      </c>
+      <c r="E107" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>191</v>
+      </c>
+      <c r="B108">
+        <v>19086</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108" t="s">
+        <v>132</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>200</v>
+      </c>
+      <c r="B109">
+        <v>9050</v>
+      </c>
+      <c r="C109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" t="s">
+        <v>427</v>
+      </c>
+      <c r="E109" t="s">
+        <v>118</v>
+      </c>
+      <c r="F109" t="s">
+        <v>396</v>
+      </c>
+      <c r="G109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>200</v>
+      </c>
+      <c r="B110">
+        <v>19649</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>427</v>
+      </c>
+      <c r="E110" t="s">
+        <v>118</v>
+      </c>
+      <c r="F110" t="s">
+        <v>396</v>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>201</v>
+      </c>
+      <c r="B111">
         <v>148</v>
       </c>
-      <c r="G80">
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" t="s">
+        <v>127</v>
+      </c>
+      <c r="F111" t="s">
+        <v>142</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>201</v>
+      </c>
+      <c r="B112">
+        <v>14633</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" t="s">
+        <v>428</v>
+      </c>
+      <c r="E112" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" t="s">
+        <v>128</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>211</v>
+      </c>
+      <c r="B113">
+        <v>13045</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" t="s">
+        <v>129</v>
+      </c>
+      <c r="F113" t="s">
+        <v>141</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>211</v>
+      </c>
+      <c r="B114">
+        <v>18622</v>
+      </c>
+      <c r="C114" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" t="s">
+        <v>129</v>
+      </c>
+      <c r="F114" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>214</v>
+      </c>
+      <c r="B115">
+        <v>4575</v>
+      </c>
+      <c r="C115" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" t="s">
+        <v>170</v>
+      </c>
+      <c r="F115" t="s">
+        <v>148</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>214</v>
+      </c>
+      <c r="B116">
+        <v>17460</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" t="s">
+        <v>170</v>
+      </c>
+      <c r="F116" t="s">
+        <v>148</v>
+      </c>
+      <c r="G116">
         <v>1</v>
       </c>
     </row>
@@ -4015,464 +5019,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8525B8F-A002-436A-B284-29C3C2DA7A4F}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C32">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C35">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>289</v>
-      </c>
-      <c r="C37">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>296</v>
-      </c>
-      <c r="C41">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4482,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CD6230-1BEF-450E-9E33-A2B1CE79CE4C}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -4517,11 +5069,41 @@
       <c r="A3" t="s">
         <v>198</v>
       </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>70</v>
       </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -4622,6 +5204,21 @@
       <c r="A12" t="s">
         <v>201</v>
       </c>
+      <c r="B12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -4842,6 +5439,21 @@
       <c r="A26" t="s">
         <v>76</v>
       </c>
+      <c r="B26" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -4967,6 +5579,21 @@
       <c r="A33" t="s">
         <v>217</v>
       </c>
+      <c r="B33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
@@ -4977,11 +5604,41 @@
       <c r="A35" t="s">
         <v>78</v>
       </c>
+      <c r="B35" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>79</v>
       </c>
+      <c r="B36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
@@ -5007,6 +5664,21 @@
       <c r="A38" t="s">
         <v>80</v>
       </c>
+      <c r="B38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
@@ -5077,14 +5749,15 @@
       <c r="A43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
-        <v>144</v>
+      <c r="B43" s="6" t="str">
+        <f>_xlfn.CONCAT(C43:E43)</f>
+        <v>goo2</v>
       </c>
       <c r="C43" t="s">
         <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>431</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5162,6 +5835,21 @@
       <c r="A48" t="s">
         <v>223</v>
       </c>
+      <c r="B48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
@@ -5187,11 +5875,41 @@
       <c r="A50" t="s">
         <v>225</v>
       </c>
+      <c r="B50" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>396</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>83</v>
       </c>
+      <c r="B51" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
@@ -5217,6 +5935,21 @@
       <c r="A53" t="s">
         <v>84</v>
       </c>
+      <c r="B53" t="s">
+        <v>398</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
@@ -5307,14 +6040,15 @@
       <c r="A59" t="s">
         <v>229</v>
       </c>
-      <c r="B59" t="s">
-        <v>334</v>
+      <c r="B59" s="6" t="str">
+        <f>_xlfn.CONCAT(C59:E59)</f>
+        <v>gian7</v>
       </c>
       <c r="C59" t="s">
         <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>432</v>
       </c>
       <c r="E59">
         <v>7</v>
@@ -5328,7 +6062,7 @@
         <v>230</v>
       </c>
       <c r="B60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C60" t="s">
         <v>118</v>
@@ -5353,7 +6087,7 @@
         <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
         <v>131</v>
@@ -5372,13 +6106,28 @@
       <c r="A63" t="s">
         <v>85</v>
       </c>
+      <c r="B63" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" t="s">
+        <v>400</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C64" t="s">
         <v>124</v>
@@ -5423,7 +6172,7 @@
         <v>233</v>
       </c>
       <c r="B67" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C67" t="s">
         <v>308</v>
@@ -5462,17 +6211,18 @@
       <c r="A69" t="s">
         <v>88</v>
       </c>
-      <c r="B69" t="s">
-        <v>150</v>
+      <c r="B69" s="6" t="str">
+        <f>_xlfn.CONCAT(C69:E69)</f>
+        <v>gak8</v>
       </c>
       <c r="C69" t="s">
         <v>134</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -5483,7 +6233,7 @@
         <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C70" t="s">
         <v>127</v>
@@ -5502,6 +6252,21 @@
       <c r="A71" t="s">
         <v>89</v>
       </c>
+      <c r="B71" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
@@ -5527,6 +6292,22 @@
       <c r="A73" t="s">
         <v>90</v>
       </c>
+      <c r="B73" s="6" t="str">
+        <f>_xlfn.CONCAT(C73:E73)</f>
+        <v>ku3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
@@ -5538,7 +6319,7 @@
         <v>236</v>
       </c>
       <c r="B75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C75" t="s">
         <v>328</v>
@@ -5577,13 +6358,28 @@
       <c r="A77" t="s">
         <v>237</v>
       </c>
+      <c r="B77" t="s">
+        <v>409</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>238</v>
       </c>
       <c r="B78" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C78" t="s">
         <v>124</v>
@@ -5703,7 +6499,7 @@
         <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C87" t="s">
         <v>129</v>
@@ -5723,7 +6519,7 @@
         <v>240</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C88" t="s">
         <v>135</v>
@@ -5768,7 +6564,7 @@
         <v>241</v>
       </c>
       <c r="B91" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C91" t="s">
         <v>131</v>
@@ -5808,7 +6604,7 @@
         <v>242</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C93" t="s">
         <v>131</v>
@@ -5827,18 +6623,48 @@
       <c r="A94" t="s">
         <v>243</v>
       </c>
+      <c r="B94" t="s">
+        <v>410</v>
+      </c>
+      <c r="C94" t="s">
+        <v>328</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>244</v>
       </c>
+      <c r="B95" t="s">
+        <v>411</v>
+      </c>
+      <c r="C95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" t="s">
+        <v>394</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C96" t="s">
         <v>118</v>
@@ -5873,13 +6699,13 @@
         <v>246</v>
       </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C100" t="s">
         <v>121</v>
       </c>
       <c r="D100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -5912,11 +6738,42 @@
       <c r="A102" t="s">
         <v>94</v>
       </c>
+      <c r="B102" s="6" t="str">
+        <f>_xlfn.CONCAT(C102:E102)</f>
+        <v>hu1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>95</v>
       </c>
+      <c r="B103" t="s">
+        <v>412</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
@@ -5927,22 +6784,38 @@
       <c r="A105" t="s">
         <v>248</v>
       </c>
+      <c r="B105" t="s">
+        <v>413</v>
+      </c>
+      <c r="C105" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" t="s">
+        <v>400</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>96</v>
       </c>
-      <c r="B106" t="s">
-        <v>155</v>
+      <c r="B106" s="6" t="str">
+        <f>_xlfn.CONCAT(C106:E106)</f>
+        <v>pian7</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>434</v>
       </c>
       <c r="D106" t="s">
         <v>133</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -5977,13 +6850,28 @@
       <c r="A109" t="s">
         <v>250</v>
       </c>
+      <c r="B109" t="s">
+        <v>395</v>
+      </c>
+      <c r="C109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" t="s">
+        <v>396</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>251</v>
       </c>
       <c r="B110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C110" t="s">
         <v>131</v>
@@ -6003,7 +6891,7 @@
         <v>252</v>
       </c>
       <c r="B111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
         <v>135</v>
@@ -6022,6 +6910,21 @@
       <c r="A112" t="s">
         <v>253</v>
       </c>
+      <c r="B112" t="s">
+        <v>415</v>
+      </c>
+      <c r="C112" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" t="s">
+        <v>400</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
@@ -6083,7 +6986,7 @@
         <v>255</v>
       </c>
       <c r="B118" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C118" t="s">
         <v>328</v>
@@ -6103,7 +7006,7 @@
         <v>256</v>
       </c>
       <c r="B119" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C119" t="s">
         <v>118</v>
@@ -6123,7 +7026,7 @@
         <v>257</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C120" t="s">
         <v>135</v>
@@ -6143,10 +7046,10 @@
         <v>258</v>
       </c>
       <c r="B121" t="s">
+        <v>352</v>
+      </c>
+      <c r="C121" t="s">
         <v>353</v>
-      </c>
-      <c r="C121" t="s">
-        <v>354</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
@@ -6167,16 +7070,62 @@
       <c r="A123" t="s">
         <v>98</v>
       </c>
+      <c r="B123" s="6" t="str">
+        <f>_xlfn.CONCAT(C123:E123)</f>
+        <v>hing5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" t="s">
+        <v>132</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>259</v>
       </c>
+      <c r="B124" t="s">
+        <v>416</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" t="s">
+        <v>141</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>99</v>
       </c>
+      <c r="B125" t="s">
+        <v>397</v>
+      </c>
+      <c r="C125" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
@@ -6208,13 +7157,13 @@
         <v>260</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C128" t="s">
         <v>121</v>
       </c>
       <c r="D128" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E128">
         <v>3</v>
@@ -6248,7 +7197,7 @@
         <v>262</v>
       </c>
       <c r="B130" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C130" t="s">
         <v>302</v>
@@ -6268,7 +7217,7 @@
         <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C131" t="s">
         <v>118</v>
@@ -6288,7 +7237,7 @@
         <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C132" t="s">
         <v>134</v>
@@ -6323,7 +7272,7 @@
         <v>265</v>
       </c>
       <c r="B136" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C136" t="s">
         <v>127</v>
@@ -6362,20 +7311,18 @@
       <c r="A138" t="s">
         <v>102</v>
       </c>
-      <c r="B138" t="s">
-        <v>160</v>
+      <c r="B138" s="6" t="str">
+        <f>_xlfn.CONCAT(C138:E138)</f>
+        <v>ling7</v>
       </c>
       <c r="C138" t="s">
         <v>118</v>
       </c>
       <c r="D138" t="s">
-        <v>133</v>
+        <v>435</v>
       </c>
       <c r="E138">
-        <v>5</v>
-      </c>
-      <c r="F138">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6383,7 +7330,7 @@
         <v>266</v>
       </c>
       <c r="B139" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C139" t="s">
         <v>118</v>
@@ -6407,17 +7354,18 @@
       <c r="A141" t="s">
         <v>267</v>
       </c>
-      <c r="B141" t="s">
-        <v>362</v>
+      <c r="B141" s="6" t="str">
+        <f>_xlfn.CONCAT(C141:E141)</f>
+        <v>Øui7</v>
       </c>
       <c r="C141" t="s">
         <v>302</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
       <c r="E141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -6427,16 +7375,32 @@
       <c r="A142" t="s">
         <v>248</v>
       </c>
+      <c r="B142" t="s">
+        <v>413</v>
+      </c>
+      <c r="C142" t="s">
+        <v>131</v>
+      </c>
+      <c r="D142" t="s">
+        <v>400</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>103</v>
       </c>
-      <c r="B143" t="s">
-        <v>161</v>
+      <c r="B143" s="6" t="str">
+        <f>_xlfn.CONCAT(C143:E143)</f>
+        <v>phian1</v>
       </c>
       <c r="C143" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D143" t="s">
         <v>133</v>
@@ -6453,7 +7417,7 @@
         <v>268</v>
       </c>
       <c r="B144" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C144" t="s">
         <v>129</v>
@@ -6473,7 +7437,7 @@
         <v>269</v>
       </c>
       <c r="B145" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C145" t="s">
         <v>118</v>
@@ -6493,7 +7457,7 @@
         <v>270</v>
       </c>
       <c r="B146" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C146" t="s">
         <v>118</v>
@@ -6588,7 +7552,7 @@
         <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C153" t="s">
         <v>134</v>
@@ -6607,13 +7571,28 @@
       <c r="A154" t="s">
         <v>273</v>
       </c>
+      <c r="B154" t="s">
+        <v>419</v>
+      </c>
+      <c r="C154" t="s">
+        <v>124</v>
+      </c>
+      <c r="D154" t="s">
+        <v>400</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>274</v>
       </c>
       <c r="B155" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C155" t="s">
         <v>302</v>
@@ -6637,17 +7616,18 @@
       <c r="A157" t="s">
         <v>275</v>
       </c>
-      <c r="B157" t="s">
-        <v>367</v>
+      <c r="B157" s="6" t="str">
+        <f>_xlfn.CONCAT(C157:E157)</f>
+        <v>buan7</v>
       </c>
       <c r="C157" t="s">
         <v>328</v>
       </c>
       <c r="D157" t="s">
-        <v>133</v>
+        <v>437</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -6657,18 +7637,48 @@
       <c r="A158" t="s">
         <v>106</v>
       </c>
+      <c r="B158" t="s">
+        <v>420</v>
+      </c>
+      <c r="C158" t="s">
+        <v>118</v>
+      </c>
+      <c r="D158" t="s">
+        <v>142</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>276</v>
       </c>
+      <c r="B159" t="s">
+        <v>421</v>
+      </c>
+      <c r="C159" t="s">
+        <v>302</v>
+      </c>
+      <c r="D159" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>277</v>
       </c>
       <c r="B160" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s">
         <v>121</v>
@@ -6712,6 +7722,21 @@
       <c r="A163" t="s">
         <v>79</v>
       </c>
+      <c r="B163" t="s">
+        <v>389</v>
+      </c>
+      <c r="C163" t="s">
+        <v>124</v>
+      </c>
+      <c r="D163" t="s">
+        <v>142</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
@@ -6737,19 +7762,34 @@
       <c r="A165" t="s">
         <v>278</v>
       </c>
+      <c r="B165" t="s">
+        <v>422</v>
+      </c>
+      <c r="C165" t="s">
+        <v>131</v>
+      </c>
+      <c r="D165" t="s">
+        <v>396</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>279</v>
       </c>
       <c r="B166" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C166" t="s">
         <v>328</v>
       </c>
       <c r="D166" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E166">
         <v>8</v>
@@ -6817,11 +7857,41 @@
       <c r="A172" t="s">
         <v>225</v>
       </c>
+      <c r="B172" t="s">
+        <v>395</v>
+      </c>
+      <c r="C172" t="s">
+        <v>121</v>
+      </c>
+      <c r="D172" t="s">
+        <v>396</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>83</v>
       </c>
+      <c r="B173" t="s">
+        <v>397</v>
+      </c>
+      <c r="C173" t="s">
+        <v>127</v>
+      </c>
+      <c r="D173" t="s">
+        <v>141</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
@@ -6832,13 +7902,28 @@
       <c r="A175" t="s">
         <v>280</v>
       </c>
+      <c r="B175" t="s">
+        <v>409</v>
+      </c>
+      <c r="C175" t="s">
+        <v>121</v>
+      </c>
+      <c r="D175" t="s">
+        <v>355</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>255</v>
       </c>
       <c r="B176" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C176" t="s">
         <v>328</v>
@@ -6858,7 +7943,7 @@
         <v>256</v>
       </c>
       <c r="B177" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C177" t="s">
         <v>118</v>
@@ -6903,7 +7988,7 @@
         <v>281</v>
       </c>
       <c r="B180" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C180" t="s">
         <v>124</v>
@@ -6923,7 +8008,7 @@
         <v>282</v>
       </c>
       <c r="B181" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C181" t="s">
         <v>129</v>
@@ -6943,7 +8028,7 @@
         <v>283</v>
       </c>
       <c r="B182" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C182" t="s">
         <v>129</v>
@@ -6962,6 +8047,21 @@
       <c r="A183" t="s">
         <v>111</v>
       </c>
+      <c r="B183" t="s">
+        <v>423</v>
+      </c>
+      <c r="C183" t="s">
+        <v>131</v>
+      </c>
+      <c r="D183" t="s">
+        <v>142</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
@@ -7003,7 +8103,7 @@
         <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C188" t="s">
         <v>118</v>
@@ -7023,7 +8123,7 @@
         <v>285</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C189" t="s">
         <v>129</v>
@@ -7042,14 +8142,15 @@
       <c r="A190" t="s">
         <v>113</v>
       </c>
-      <c r="B190" t="s">
-        <v>155</v>
+      <c r="B190" s="6" t="str">
+        <f>_xlfn.CONCAT(C190:E190)</f>
+        <v>ping5</v>
       </c>
       <c r="C190" t="s">
-        <v>127</v>
+        <v>434</v>
       </c>
       <c r="D190" t="s">
-        <v>133</v>
+        <v>435</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -7088,13 +8189,13 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C193" t="s">
         <v>121</v>
       </c>
       <c r="D193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -7108,13 +8209,13 @@
         <v>287</v>
       </c>
       <c r="B194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C194" t="s">
         <v>118</v>
       </c>
       <c r="D194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E194">
         <v>5</v>
@@ -7128,13 +8229,13 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C195" t="s">
         <v>121</v>
       </c>
       <c r="D195" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -7148,7 +8249,7 @@
         <v>288</v>
       </c>
       <c r="B196" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C196" t="s">
         <v>308</v>
@@ -7172,13 +8273,28 @@
       <c r="A198" t="s">
         <v>289</v>
       </c>
+      <c r="B198" t="s">
+        <v>425</v>
+      </c>
+      <c r="C198" t="s">
+        <v>129</v>
+      </c>
+      <c r="D198" t="s">
+        <v>426</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>290</v>
       </c>
       <c r="B199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C199" t="s">
         <v>302</v>
@@ -7197,6 +8313,21 @@
       <c r="A200" t="s">
         <v>114</v>
       </c>
+      <c r="B200" t="s">
+        <v>427</v>
+      </c>
+      <c r="C200" t="s">
+        <v>118</v>
+      </c>
+      <c r="D200" t="s">
+        <v>396</v>
+      </c>
+      <c r="E200">
+        <v>5</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
@@ -7223,7 +8354,7 @@
         <v>232</v>
       </c>
       <c r="B202" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C202" t="s">
         <v>124</v>
@@ -7278,7 +8409,7 @@
         <v>291</v>
       </c>
       <c r="B207" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C207" t="s">
         <v>118</v>
@@ -7297,13 +8428,28 @@
       <c r="A208" t="s">
         <v>292</v>
       </c>
+      <c r="B208" t="s">
+        <v>429</v>
+      </c>
+      <c r="C208" t="s">
+        <v>328</v>
+      </c>
+      <c r="D208" t="s">
+        <v>400</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>293</v>
       </c>
       <c r="B209" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C209" t="s">
         <v>131</v>
@@ -7347,6 +8493,21 @@
       <c r="A212" t="s">
         <v>294</v>
       </c>
+      <c r="B212" t="s">
+        <v>430</v>
+      </c>
+      <c r="C212" t="s">
+        <v>118</v>
+      </c>
+      <c r="D212" t="s">
+        <v>304</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
@@ -7392,13 +8553,28 @@
       <c r="A215" t="s">
         <v>296</v>
       </c>
+      <c r="B215" t="s">
+        <v>423</v>
+      </c>
+      <c r="C215" t="s">
+        <v>131</v>
+      </c>
+      <c r="D215" t="s">
+        <v>142</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C216" t="s">
         <v>124</v>

--- a/output/Piau-Tsu-Im.xlsx
+++ b/output/Piau-Tsu-Im.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE451B1-EF67-4079-B3BB-F9D6B18B3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53393D12-B53A-44C8-80DC-F0CACBDC3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F63E8DF6-0552-44DA-9DDB-976E7E630760}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F63E8DF6-0552-44DA-9DDB-976E7E630760}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字注音表" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="292">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -607,9 +607,6 @@
     <t>to1</t>
   </si>
   <si>
-    <t>khNone0</t>
-  </si>
-  <si>
     <t>Øi2</t>
   </si>
   <si>
@@ -658,9 +655,6 @@
     <t>ching1</t>
   </si>
   <si>
-    <t>ci2</t>
-  </si>
-  <si>
     <t>kim1</t>
   </si>
   <si>
@@ -721,9 +715,6 @@
     <t>ci1</t>
   </si>
   <si>
-    <t>hing5</t>
-  </si>
-  <si>
     <t>ka1</t>
   </si>
   <si>
@@ -905,13 +896,57 @@
   </si>
   <si>
     <t>kui1</t>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -941,6 +976,13 @@
     <font>
       <sz val="9"/>
       <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans TC"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -976,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +1029,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEE7EC6-CC8C-4B5E-906F-07012D2A74C0}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -1381,14 +1426,15 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
+      <c r="B4" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C4:E4)</f>
+        <v>hing5</v>
       </c>
       <c r="C4" t="s">
         <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1626,8 +1672,9 @@
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>164</v>
+      <c r="B20" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C20:E20)</f>
+        <v>ki1</v>
       </c>
       <c r="C20" t="s">
         <v>142</v>
@@ -1636,7 +1683,7 @@
         <v>165</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1846,14 +1893,18 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
-        <v>184</v>
+      <c r="B34" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C34:E34)</f>
+        <v>khai3</v>
       </c>
       <c r="C34" t="s">
         <v>179</v>
       </c>
+      <c r="D34" t="s">
+        <v>282</v>
+      </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1884,10 +1935,10 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
         <v>185</v>
-      </c>
-      <c r="C36" t="s">
-        <v>186</v>
       </c>
       <c r="D36" t="s">
         <v>165</v>
@@ -1904,7 +1955,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
         <v>179</v>
@@ -1929,10 +1980,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
         <v>157</v>
@@ -1948,8 +1999,9 @@
       <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
-        <v>189</v>
+      <c r="B40" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C40:E40)</f>
+        <v>si1</v>
       </c>
       <c r="C40" t="s">
         <v>162</v>
@@ -1969,7 +2021,7 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
         <v>176</v>
@@ -1989,10 +2041,10 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
         <v>191</v>
-      </c>
-      <c r="C42" t="s">
-        <v>192</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
@@ -2034,10 +2086,10 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
         <v>185</v>
-      </c>
-      <c r="C45" t="s">
-        <v>186</v>
       </c>
       <c r="D45" t="s">
         <v>165</v>
@@ -2053,14 +2105,15 @@
       <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C46:E46)</f>
+        <v>kai2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" t="s">
         <v>193</v>
-      </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" t="s">
-        <v>194</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2074,10 +2127,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D47" t="s">
         <v>157</v>
@@ -2099,13 +2152,13 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
         <v>195</v>
-      </c>
-      <c r="C49" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" t="s">
-        <v>196</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2119,10 +2172,10 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" t="s">
         <v>157</v>
@@ -2139,7 +2192,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
         <v>139</v>
@@ -2159,7 +2212,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
         <v>179</v>
@@ -2189,7 +2242,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
         <v>153</v>
@@ -2209,7 +2262,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
         <v>153</v>
@@ -2228,8 +2281,9 @@
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
-        <v>201</v>
+      <c r="B57" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C57:E57)</f>
+        <v>ci2</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2249,13 +2303,13 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
         <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2274,10 +2328,10 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
         <v>157</v>
@@ -2294,10 +2348,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
         <v>157</v>
@@ -2314,10 +2368,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D62" t="s">
         <v>143</v>
@@ -2334,13 +2388,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C63" t="s">
         <v>162</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2358,8 +2412,9 @@
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
-        <v>208</v>
+      <c r="B65" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C65:E65)</f>
+        <v>tan2</v>
       </c>
       <c r="C65" t="s">
         <v>139</v>
@@ -2368,7 +2423,7 @@
         <v>149</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -2379,13 +2434,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E66">
         <v>7</v>
@@ -2399,13 +2454,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C67" t="s">
         <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2419,7 +2474,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C68" t="s">
         <v>142</v>
@@ -2444,13 +2499,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C70" t="s">
         <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -2464,13 +2519,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -2484,7 +2539,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
         <v>151</v>
@@ -2504,13 +2559,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
         <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2534,10 +2589,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
         <v>157</v>
@@ -2554,10 +2609,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
         <v>157</v>
@@ -2574,13 +2629,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C78" t="s">
         <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -2594,10 +2649,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D79" t="s">
         <v>163</v>
@@ -2619,10 +2674,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
         <v>165</v>
@@ -2638,14 +2693,15 @@
       <c r="A82" t="s">
         <v>79</v>
       </c>
-      <c r="B82" t="s">
-        <v>220</v>
+      <c r="B82" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C82:E82)</f>
+        <v>Øia2</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2659,7 +2715,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
         <v>151</v>
@@ -2678,11 +2734,12 @@
       <c r="A84" t="s">
         <v>81</v>
       </c>
-      <c r="B84" t="s">
-        <v>222</v>
+      <c r="B84" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C84:E84)</f>
+        <v>ping5</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="D84" t="s">
         <v>163</v>
@@ -2704,10 +2761,10 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D86" t="s">
         <v>143</v>
@@ -2724,10 +2781,10 @@
         <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D87" t="s">
         <v>157</v>
@@ -2744,13 +2801,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
         <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2763,6 +2820,19 @@
       <c r="A89" t="s">
         <v>83</v>
       </c>
+      <c r="B89" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C89:E89)</f>
+        <v>pin1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
@@ -2773,13 +2843,26 @@
       <c r="A91" t="s">
         <v>84</v>
       </c>
+      <c r="B91" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C91:E91)</f>
+        <v>koo2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91" t="s">
+        <v>287</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
         <v>162</v>
@@ -2799,13 +2882,13 @@
         <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
         <v>153</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2849,10 +2932,10 @@
         <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D97" t="s">
         <v>163</v>
@@ -2869,10 +2952,10 @@
         <v>88</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D98" t="s">
         <v>163</v>
@@ -2909,13 +2992,13 @@
         <v>89</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E100">
         <v>8</v>
@@ -2954,7 +3037,7 @@
         <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
         <v>162</v>
@@ -2974,7 +3057,7 @@
         <v>91</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C104" t="s">
         <v>179</v>
@@ -2994,13 +3077,13 @@
         <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C105" t="s">
         <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -3019,10 +3102,10 @@
         <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
         <v>157</v>
@@ -3039,13 +3122,13 @@
         <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s">
         <v>151</v>
       </c>
       <c r="D108" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -3059,13 +3142,13 @@
         <v>94</v>
       </c>
       <c r="B109" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s">
         <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3079,13 +3162,13 @@
         <v>95</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C110" t="s">
         <v>176</v>
       </c>
       <c r="D110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -3103,17 +3186,18 @@
       <c r="A112" t="s">
         <v>96</v>
       </c>
-      <c r="B112" t="s">
-        <v>236</v>
+      <c r="B112" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C112:E112)</f>
+        <v>hut4</v>
       </c>
       <c r="C112" t="s">
         <v>145</v>
       </c>
       <c r="D112" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F112">
         <v>4</v>
@@ -3124,7 +3208,7 @@
         <v>91</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
         <v>179</v>
@@ -3164,13 +3248,13 @@
         <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
         <v>151</v>
       </c>
       <c r="D115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E115">
         <v>8</v>
@@ -3194,13 +3278,13 @@
         <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D118" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E118">
         <v>8</v>
@@ -3214,13 +3298,13 @@
         <v>100</v>
       </c>
       <c r="B119" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E119">
         <v>8</v>
@@ -3234,7 +3318,7 @@
         <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
         <v>139</v>
@@ -3254,13 +3338,13 @@
         <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
         <v>153</v>
       </c>
       <c r="D121" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -3279,10 +3363,10 @@
         <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
         <v>146</v>
@@ -3299,13 +3383,13 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E124">
         <v>7</v>
@@ -3319,13 +3403,13 @@
         <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C125" t="s">
         <v>162</v>
       </c>
       <c r="D125" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3339,13 +3423,13 @@
         <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C126" t="s">
         <v>151</v>
       </c>
       <c r="D126" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -3364,13 +3448,13 @@
         <v>107</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C128" t="s">
         <v>179</v>
       </c>
       <c r="D128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E128">
         <v>3</v>
@@ -3384,13 +3468,13 @@
         <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C129" t="s">
         <v>179</v>
       </c>
       <c r="D129" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -3404,13 +3488,13 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C130" t="s">
         <v>139</v>
       </c>
       <c r="D130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -3424,13 +3508,13 @@
         <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -3449,13 +3533,13 @@
         <v>66</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
         <v>162</v>
       </c>
       <c r="D133" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -3469,13 +3553,13 @@
         <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C134" t="s">
         <v>176</v>
       </c>
       <c r="D134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E134">
         <v>7</v>
@@ -3489,7 +3573,7 @@
         <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3509,13 +3593,13 @@
         <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D136" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3539,13 +3623,13 @@
         <v>89</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D139" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E139">
         <v>8</v>
@@ -3559,10 +3643,10 @@
         <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C140" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D140" t="s">
         <v>163</v>
@@ -3599,7 +3683,7 @@
         <v>115</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C142" t="s">
         <v>145</v>
@@ -3624,10 +3708,10 @@
         <v>116</v>
       </c>
       <c r="B144" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D144" t="s">
         <v>177</v>
@@ -3644,13 +3728,13 @@
         <v>117</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C145" t="s">
         <v>153</v>
       </c>
       <c r="D145" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -3664,13 +3748,13 @@
         <v>118</v>
       </c>
       <c r="B146" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C146" t="s">
         <v>176</v>
       </c>
       <c r="D146" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E146">
         <v>5</v>
@@ -3684,13 +3768,13 @@
         <v>119</v>
       </c>
       <c r="B147" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C147" t="s">
         <v>145</v>
       </c>
       <c r="D147" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -3709,7 +3793,7 @@
         <v>120</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C149" t="s">
         <v>159</v>
@@ -3729,13 +3813,13 @@
         <v>121</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C150" t="s">
         <v>162</v>
       </c>
       <c r="D150" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -3749,13 +3833,13 @@
         <v>122</v>
       </c>
       <c r="B151" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C151" t="s">
         <v>162</v>
       </c>
       <c r="D151" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -3768,6 +3852,19 @@
       <c r="A152" t="s">
         <v>123</v>
       </c>
+      <c r="B152" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C152:E152)</f>
+        <v>cap4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>289</v>
+      </c>
+      <c r="D152" t="s">
+        <v>290</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
@@ -3799,7 +3896,7 @@
         <v>124</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C155" t="s">
         <v>151</v>
@@ -3819,7 +3916,7 @@
         <v>91</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C156" t="s">
         <v>179</v>
@@ -3839,10 +3936,10 @@
         <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D157" t="s">
         <v>165</v>
@@ -3869,7 +3966,7 @@
         <v>126</v>
       </c>
       <c r="B160" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C160" t="s">
         <v>162</v>
@@ -3888,17 +3985,18 @@
       <c r="A161" t="s">
         <v>96</v>
       </c>
-      <c r="B161" t="s">
-        <v>236</v>
+      <c r="B161" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C161:E161)</f>
+        <v>hut4</v>
       </c>
       <c r="C161" t="s">
         <v>145</v>
       </c>
       <c r="D161" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F161">
         <v>4</v>
@@ -3909,13 +4007,13 @@
         <v>127</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C162" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D162" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -3928,6 +4026,19 @@
       <c r="A163" t="s">
         <v>128</v>
       </c>
+      <c r="B163" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C163:E163)</f>
+        <v>ko1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>283</v>
+      </c>
+      <c r="D163" t="s">
+        <v>291</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
@@ -3939,13 +4050,13 @@
         <v>129</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C165" t="s">
         <v>145</v>
       </c>
       <c r="D165" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -3958,17 +4069,18 @@
       <c r="A166" t="s">
         <v>96</v>
       </c>
-      <c r="B166" t="s">
-        <v>236</v>
+      <c r="B166" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C166:E166)</f>
+        <v>hut4</v>
       </c>
       <c r="C166" t="s">
         <v>145</v>
       </c>
       <c r="D166" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F166">
         <v>4</v>
@@ -3979,13 +4091,13 @@
         <v>127</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C167" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D167" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -3998,17 +4110,18 @@
       <c r="A168" t="s">
         <v>130</v>
       </c>
-      <c r="B168" t="s">
-        <v>207</v>
+      <c r="B168" s="4" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C168:E168)</f>
+        <v>sim3</v>
       </c>
       <c r="C168" t="s">
         <v>162</v>
       </c>
       <c r="D168" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -4024,7 +4137,7 @@
         <v>131</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C170" t="s">
         <v>151</v>
@@ -4044,7 +4157,7 @@
         <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s">
         <v>142</v>
@@ -4064,10 +4177,10 @@
         <v>133</v>
       </c>
       <c r="B172" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C172" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D172" t="s">
         <v>177</v>
@@ -4084,10 +4197,10 @@
         <v>134</v>
       </c>
       <c r="B173" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C173" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D173" t="s">
         <v>177</v>
@@ -4109,13 +4222,13 @@
         <v>135</v>
       </c>
       <c r="B175" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C175" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D175" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -4129,13 +4242,13 @@
         <v>136</v>
       </c>
       <c r="B176" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C176" t="s">
         <v>145</v>
       </c>
       <c r="D176" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -4149,13 +4262,13 @@
         <v>137</v>
       </c>
       <c r="B177" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C177" t="s">
         <v>142</v>
       </c>
       <c r="D177" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -4169,13 +4282,13 @@
         <v>66</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C178" t="s">
         <v>162</v>
       </c>
       <c r="D178" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -4840,7 +4953,7 @@
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
         <v>162</v>
@@ -4863,7 +4976,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" t="s">
         <v>162</v>
@@ -4886,7 +4999,7 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
         <v>176</v>
@@ -4909,7 +5022,7 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
         <v>176</v>
@@ -4978,13 +5091,13 @@
         <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
         <v>145</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -5001,13 +5114,13 @@
         <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
         <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -5024,13 +5137,13 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
         <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5047,13 +5160,13 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
         <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -5070,13 +5183,13 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" t="s">
         <v>195</v>
-      </c>
-      <c r="E38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" t="s">
-        <v>196</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -5093,13 +5206,13 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" t="s">
         <v>195</v>
-      </c>
-      <c r="E39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" t="s">
-        <v>196</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -5116,7 +5229,7 @@
         <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E40" t="s">
         <v>139</v>
@@ -5139,7 +5252,7 @@
         <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s">
         <v>139</v>
@@ -5162,7 +5275,7 @@
         <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E42" t="s">
         <v>139</v>
@@ -5185,13 +5298,13 @@
         <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -5208,13 +5321,13 @@
         <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -5231,10 +5344,10 @@
         <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
         <v>165</v>
@@ -5254,10 +5367,10 @@
         <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" t="s">
         <v>165</v>
@@ -5277,7 +5390,7 @@
         <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E47" t="s">
         <v>162</v>
@@ -5300,7 +5413,7 @@
         <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
         <v>162</v>
@@ -5323,13 +5436,13 @@
         <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
         <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5346,13 +5459,13 @@
         <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
         <v>153</v>
       </c>
       <c r="F50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5461,13 +5574,13 @@
         <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
         <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5484,13 +5597,13 @@
         <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
         <v>139</v>
       </c>
       <c r="F56" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5507,13 +5620,13 @@
         <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
         <v>151</v>
       </c>
       <c r="F57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -5530,13 +5643,13 @@
         <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
         <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -5553,13 +5666,13 @@
         <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
         <v>151</v>
       </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -5576,13 +5689,13 @@
         <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E60" t="s">
         <v>139</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5599,13 +5712,13 @@
         <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
         <v>139</v>
       </c>
       <c r="F61" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5622,7 +5735,7 @@
         <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E62" t="s">
         <v>145</v>
@@ -5645,7 +5758,7 @@
         <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E63" t="s">
         <v>145</v>
@@ -5668,7 +5781,7 @@
         <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
         <v>145</v>
@@ -5691,13 +5804,13 @@
         <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
         <v>145</v>
       </c>
       <c r="F65" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -5783,13 +5896,13 @@
         <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F69" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G69">
         <v>8</v>
@@ -5806,13 +5919,13 @@
         <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G70">
         <v>8</v>
@@ -5829,7 +5942,7 @@
         <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E71" t="s">
         <v>139</v>
@@ -5852,7 +5965,7 @@
         <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E72" t="s">
         <v>139</v>
@@ -5875,13 +5988,13 @@
         <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E73" t="s">
         <v>162</v>
       </c>
       <c r="F73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -5898,13 +6011,13 @@
         <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E74" t="s">
         <v>162</v>
       </c>
       <c r="F74" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -5921,13 +6034,13 @@
         <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
         <v>179</v>
       </c>
       <c r="F75" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -5944,13 +6057,13 @@
         <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
         <v>179</v>
       </c>
       <c r="F76" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -5967,13 +6080,13 @@
         <v>107</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
         <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -5990,7 +6103,7 @@
         <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E78" t="s">
         <v>159</v>
@@ -6013,7 +6126,7 @@
         <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E79" t="s">
         <v>159</v>
@@ -6036,13 +6149,13 @@
         <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E80" t="s">
         <v>162</v>
       </c>
       <c r="F80" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -6059,13 +6172,13 @@
         <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E81" t="s">
         <v>162</v>
       </c>
       <c r="F81" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -6082,13 +6195,13 @@
         <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E82" t="s">
         <v>162</v>
       </c>
       <c r="F82" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -6105,13 +6218,13 @@
         <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E83" t="s">
         <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -6174,7 +6287,7 @@
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E86" t="s">
         <v>145</v>
@@ -6197,7 +6310,7 @@
         <v>96</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E87" t="s">
         <v>145</v>
@@ -6220,7 +6333,7 @@
         <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E88" t="s">
         <v>145</v>
@@ -6243,13 +6356,13 @@
         <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
       </c>
       <c r="F89" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -6266,13 +6379,13 @@
         <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F90" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -6289,13 +6402,13 @@
         <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -6312,13 +6425,13 @@
         <v>127</v>
       </c>
       <c r="D92" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F92" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -6335,7 +6448,7 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E93" t="s">
         <v>145</v>
@@ -6358,7 +6471,7 @@
         <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E94" t="s">
         <v>145</v>
@@ -6381,7 +6494,7 @@
         <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E95" t="s">
         <v>145</v>
@@ -6404,13 +6517,13 @@
         <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E96" t="s">
         <v>145</v>
       </c>
       <c r="F96" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -6427,13 +6540,13 @@
         <v>127</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -6450,13 +6563,13 @@
         <v>127</v>
       </c>
       <c r="D98" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -6473,13 +6586,13 @@
         <v>127</v>
       </c>
       <c r="D99" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -6496,13 +6609,13 @@
         <v>130</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E100" t="s">
         <v>162</v>
       </c>
       <c r="F100" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -6519,13 +6632,13 @@
         <v>130</v>
       </c>
       <c r="D101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E101" t="s">
         <v>162</v>
       </c>
       <c r="F101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -6542,10 +6655,10 @@
         <v>133</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F102" t="s">
         <v>177</v>
@@ -6565,10 +6678,10 @@
         <v>133</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E103" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F103" t="s">
         <v>177</v>
@@ -6588,13 +6701,13 @@
         <v>136</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E104" t="s">
         <v>145</v>
       </c>
       <c r="F104" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -6611,13 +6724,13 @@
         <v>136</v>
       </c>
       <c r="D105" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E105" t="s">
         <v>145</v>
       </c>
       <c r="F105" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G105">
         <v>2</v>
